--- a/output/google_maps_data_Tempat_Ibadah_Kulon_Progo.xlsx
+++ b/output/google_maps_data_Tempat_Ibadah_Kulon_Progo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K121"/>
+  <dimension ref="A1:J121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,35 +456,30 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>reviews_count</t>
+          <t>reviews_average</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>reviews_average</t>
+          <t>latitude</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>latitude</t>
+          <t>longitude</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>longitude</t>
+          <t>is_permanently_closed</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>is_permanently_closed</t>
+          <t>gmaps_link</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>gmaps_link</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>latest_review_date</t>
         </is>
@@ -507,25 +502,24 @@
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+      <c r="E2" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F2" t="n">
-        <v>4.7</v>
+        <v>-7.869101</v>
       </c>
       <c r="G2" t="n">
-        <v>-7.869101</v>
-      </c>
-      <c r="H2" t="n">
         <v>110.146751</v>
       </c>
-      <c r="I2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" t="inlineStr">
+      <c r="H2" t="b">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/PCNU+Kabupaten+Kulon+Progo/@-7.8171248,110.062979,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb49fca344af:0xef537e80b677299b!8m2!3d-7.8691011!4d110.1467514!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARZyZWxpZ2lvdXNfb3JnYW5pemF0aW9umgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJMT1RsRGMzQm5SUkFC4AEA-gEECAAQKA!16s%2Fg%2F11cmbg6m79?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -540,25 +534,24 @@
       </c>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="E3" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F3" t="n">
-        <v>4.7</v>
+        <v>-7.867192</v>
       </c>
       <c r="G3" t="n">
-        <v>-7.867192</v>
-      </c>
-      <c r="H3" t="n">
         <v>110.148354</v>
       </c>
-      <c r="I3" t="b">
-        <v>0</v>
+      <c r="H3" t="b">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Agung+Kulon+Progo/@-7.8171248,110.062979,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb3647dbf115:0xf344a733736b41c0!8m2!3d-7.8671922!4d110.1483541!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnROM0Z4WlhablJSQULgAQD6AQQIABBH!16s%2Fg%2F11b6s06zd1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J3" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Agung+Kulon+Progo/@-7.8171248,110.062979,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb3647dbf115:0xf344a733736b41c0!8m2!3d-7.8671922!4d110.1483541!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUnROM0Z4WlhablJSQULgAQD6AQQIABBH!16s%2Fg%2F11b6s06zd1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
         <is>
           <t>1 hari lalu</t>
         </is>
@@ -577,25 +570,24 @@
       </c>
       <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
+      <c r="E4" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F4" t="n">
-        <v>4.7</v>
+        <v>-7.856978</v>
       </c>
       <c r="G4" t="n">
-        <v>-7.856978</v>
-      </c>
-      <c r="H4" t="n">
         <v>110.173437</v>
       </c>
-      <c r="I4" t="b">
-        <v>0</v>
+      <c r="H4" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Islamic+Center+Kulon+Progo+(ICKP)/@-7.8171248,110.062979,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb4d306685a5:0x3d04b25306d5fd2e!8m2!3d-7.8569777!4d110.1734371!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTNkMlJoV2taM0VBReABAPoBBAgAECc!16s%2Fg%2F11v0x4vmzd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J4" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Islamic+Center+Kulon+Progo+(ICKP)/@-7.8171248,110.062979,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb4d306685a5:0x3d04b25306d5fd2e!8m2!3d-7.8569777!4d110.1734371!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTNkMlJoV2taM0VBReABAPoBBAgAECc!16s%2Fg%2F11v0x4vmzd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -618,25 +610,24 @@
           <t>(0274) 773465</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr"/>
+      <c r="E5" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F5" t="n">
-        <v>4.8</v>
+        <v>-7.856973</v>
       </c>
       <c r="G5" t="n">
-        <v>-7.856973</v>
-      </c>
-      <c r="H5" t="n">
         <v>110.15877</v>
       </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" t="inlineStr">
+      <c r="H5" t="b">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gereja+Kristen+Jawa+(GKJ)+Wates/@-7.8171248,110.062979,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb231cf69b49:0x96430a1bfae41806!8m2!3d-7.856973!4d110.15877!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQY2hyaXN0aWFuX2NodXJjaOABAA!16s%2Fg%2F1pzq8cchh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -655,25 +646,24 @@
           <t>(0274) 773465</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr"/>
+      <c r="E6" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F6" t="n">
-        <v>4.8</v>
+        <v>-7.888217</v>
       </c>
       <c r="G6" t="n">
-        <v>-7.888217</v>
-      </c>
-      <c r="H6" t="n">
         <v>110.071338</v>
       </c>
-      <c r="I6" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" t="inlineStr">
+      <c r="H6" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Tempat+Ibadah/@-7.8882169,109.9271419,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae5c33b4d57e5:0xfc0d91b076232923!8m2!3d-7.8882169!4d110.0713375!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGY2h1cmNo4AEA!16s%2Fg%2F11vkcdyfk5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -688,25 +678,24 @@
       </c>
       <c r="C7" t="inlineStr"/>
       <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr"/>
+      <c r="E7" t="n">
+        <v>5</v>
+      </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>-7.857327</v>
       </c>
       <c r="G7" t="n">
-        <v>-7.857327</v>
-      </c>
-      <c r="H7" t="n">
         <v>110.155449</v>
       </c>
-      <c r="I7" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" t="inlineStr">
+      <c r="H7" t="b">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Gereja+Katolik+Santa+Maria+Bunda+Penasihat+Baik,+Wates/@-7.8573268,110.011253,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb39690f317f:0x921da714231993b!8m2!3d-7.8573268!4d110.1554486!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQ9jYXRob2xpY19jaHVyY2iaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkdkWEIxZVV0M0VBReABAPoBBAgAECg!16s%2Fg%2F1pzx04gyy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -725,25 +714,24 @@
           <t>0813-9271-5716</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr"/>
+      <c r="E8" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F8" t="n">
-        <v>4.9</v>
+        <v>-7.838314</v>
       </c>
       <c r="G8" t="n">
-        <v>-7.838314</v>
-      </c>
-      <c r="H8" t="n">
         <v>110.160893</v>
       </c>
-      <c r="I8" t="b">
-        <v>0</v>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Ma'had+Darul+Hadits+Al+Manshuroh+(DHA)/@-7.8573268,110.011253,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afadcde54b04f:0xfa38968a2ead34a8!8m2!3d-7.8383137!4d110.1608934!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlBNMlpVYTA1QkVBReABAPoBBAgAECU!16s%2Fg%2F11b7ff5yh2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J8" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Ma'had+Darul+Hadits+Al+Manshuroh+(DHA)/@-7.8573268,110.011253,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afadcde54b04f:0xfa38968a2ead34a8!8m2!3d-7.8383137!4d110.1608934!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlBNMlpVYTA1QkVBReABAPoBBAgAECU!16s%2Fg%2F11b7ff5yh2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K8" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -762,25 +750,24 @@
       </c>
       <c r="C9" t="inlineStr"/>
       <c r="D9" t="inlineStr"/>
-      <c r="E9" t="inlineStr"/>
+      <c r="E9" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F9" t="n">
-        <v>4.7</v>
+        <v>-7.854005</v>
       </c>
       <c r="G9" t="n">
-        <v>-7.854005</v>
-      </c>
-      <c r="H9" t="n">
         <v>110.165744</v>
       </c>
-      <c r="I9" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" t="inlineStr">
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Baitussalam+Serut/@-7.8573268,110.011253,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb18ee7d5563:0x3ed7eda65a43c530!8m2!3d-7.8540052!4d110.1657436!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTndjVGczVW1oblJSQULgAQD6AQQIABAn!16s%2Fg%2F11cn5m___y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -795,25 +782,24 @@
       </c>
       <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr"/>
+      <c r="E10" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F10" t="n">
-        <v>4.5</v>
+        <v>-7.839397</v>
       </c>
       <c r="G10" t="n">
-        <v>-7.839397</v>
-      </c>
-      <c r="H10" t="n">
         <v>110.193616</v>
       </c>
-      <c r="I10" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" t="inlineStr">
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Musola+AL+FARUQ+Jetak+Kaliagug+Sentolo+Kulonprogo/@-7.8573268,110.011253,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afa56b58986bb:0x57bd57a0027e5cdc!8m2!3d-7.8393968!4d110.1936164!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVF5T0dKUE1tNW5SUkFC4AEA-gEECAAQHA!16s%2Fg%2F11dxq81zqy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -828,25 +814,24 @@
       </c>
       <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr"/>
+      <c r="E11" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F11" t="n">
-        <v>4.9</v>
+        <v>-7.872609</v>
       </c>
       <c r="G11" t="n">
-        <v>-7.872609</v>
-      </c>
-      <c r="H11" t="n">
         <v>110.150572</v>
       </c>
-      <c r="I11" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" t="inlineStr">
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Ath-Thohiroh/@-7.8573268,110.011253,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb48c05c62f3:0xfc94021712496cf6!8m2!3d-7.8726091!4d110.1505715!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmtiSEpsV0VaQkVBReABAPoBBAgxECw!16s%2Fg%2F11c0vx69vn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -861,25 +846,24 @@
       </c>
       <c r="C12" t="inlineStr"/>
       <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr"/>
+      <c r="E12" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F12" t="n">
-        <v>4.7</v>
+        <v>-7.723752</v>
       </c>
       <c r="G12" t="n">
-        <v>-7.723752</v>
-      </c>
-      <c r="H12" t="n">
         <v>110.219425</v>
       </c>
-      <c r="I12" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" t="inlineStr">
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Sunan+Kalijaga/@-7.723752,110.0752294,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7af1591ee1b689:0x60c95ffcd4499255!8m2!3d-7.723752!4d110.219425!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkhkWE5tT0VobkVBReABAPoBBAgAEEE!16s%2Fg%2F11bx1bcdrx?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -894,25 +878,24 @@
       </c>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="inlineStr"/>
+      <c r="E13" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F13" t="n">
-        <v>4.6</v>
+        <v>-7.842422</v>
       </c>
       <c r="G13" t="n">
-        <v>-7.842422</v>
-      </c>
-      <c r="H13" t="n">
         <v>110.167905</v>
       </c>
-      <c r="I13" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" t="inlineStr">
+      <c r="H13" t="b">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Agung+Pengasih/@-7.723752,110.0752294,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afae130ed6ed9:0x976964a6b7a22f07!8m2!3d-7.8424216!4d110.1679051!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUktkeloyYmtKbkVBReABAPoBBAgAEC4!16s%2Fg%2F11bzq32w7p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -927,25 +910,24 @@
       </c>
       <c r="C14" t="inlineStr"/>
       <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr"/>
+      <c r="E14" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F14" t="n">
-        <v>4.6</v>
+        <v>-7.858997</v>
       </c>
       <c r="G14" t="n">
-        <v>-7.858997</v>
-      </c>
-      <c r="H14" t="n">
         <v>110.165148</v>
       </c>
-      <c r="I14" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" t="inlineStr">
+      <c r="H14" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/MASJID+BANGUN+UMMAH/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1c3ad6f429:0xbe80faa54fab5f8!8m2!3d-7.8589968!4d110.1651478!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUldkRGRwY1dsM1JSQULgAQD6AQQIcRAl!16s%2Fg%2F11js5fyvzz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -964,25 +946,24 @@
           <t>0812-2784-1944</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr"/>
+      <c r="E15" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F15" t="n">
-        <v>4.8</v>
+        <v>-7.866998</v>
       </c>
       <c r="G15" t="n">
-        <v>-7.866998</v>
-      </c>
-      <c r="H15" t="n">
         <v>110.180469</v>
       </c>
-      <c r="I15" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" t="inlineStr">
+      <c r="H15" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Asy-Syams/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb0cb562692d:0x9692ba0e21fa63a6!8m2!3d-7.8669983!4d110.1804692!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUktORTR6T0ZkQkVBReABAPoBBAgAEDM!16s%2Fg%2F11cjj5bb5k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -997,25 +978,24 @@
       </c>
       <c r="C16" t="inlineStr"/>
       <c r="D16" t="inlineStr"/>
-      <c r="E16" t="inlineStr"/>
+      <c r="E16" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F16" t="n">
-        <v>4.2</v>
+        <v>-7.910514</v>
       </c>
       <c r="G16" t="n">
-        <v>-7.910514</v>
-      </c>
-      <c r="H16" t="n">
         <v>110.161547</v>
       </c>
-      <c r="I16" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" t="inlineStr">
+      <c r="H16" t="b">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/GKJ+Wates+Selatan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afcc6bd21bb9b:0x455752c532abf2fd!8m2!3d-7.9105136!4d110.1615473!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBjaHJpc3RpYW5fY2h1cmNomgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI0T1dSMmEyRlJFQUXgAQD6AQQIABAS!16s%2Fg%2F1pzw63zzy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1034,25 +1014,24 @@
           <t>0853-2345-3500</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr"/>
+      <c r="E17" t="n">
+        <v>5</v>
+      </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>-7.865879</v>
       </c>
       <c r="G17" t="n">
-        <v>-7.865879</v>
-      </c>
-      <c r="H17" t="n">
         <v>110.159288</v>
       </c>
-      <c r="I17" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" t="inlineStr">
+      <c r="H17" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/MT+NAADHIRA/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbb6839309a9:0x1803ea6cc78177f7!8m2!3d-7.865879!4d110.159288!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU0xWDNSMWRXaFJSUkFC4AEA-gEECAAQMw!16s%2Fg%2F11kq3_k9t1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1071,25 +1050,24 @@
           <t>0812-2596-356</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr"/>
+      <c r="E18" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F18" t="n">
-        <v>4.8</v>
+        <v>-7.828696</v>
       </c>
       <c r="G18" t="n">
-        <v>-7.828696</v>
-      </c>
-      <c r="H18" t="n">
         <v>110.189619</v>
       </c>
-      <c r="I18" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" t="inlineStr">
+      <c r="H18" t="b">
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/GKJ+Kalipenten/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afa3cd1460f45:0x7e0ab38e81db1cee!8m2!3d-7.8286957!4d110.1896194!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQY2hyaXN0aWFuX2NodXJjaOABAA!16s%2Fg%2F11btmq6vs4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -1104,25 +1082,24 @@
       </c>
       <c r="C19" t="inlineStr"/>
       <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr"/>
+      <c r="E19" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F19" t="n">
-        <v>4.5</v>
+        <v>-7.854262</v>
       </c>
       <c r="G19" t="n">
-        <v>-7.854262</v>
-      </c>
-      <c r="H19" t="n">
         <v>110.133016</v>
       </c>
-      <c r="I19" t="b">
-        <v>0</v>
+      <c r="H19" t="b">
+        <v>0</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Baitul+Karim/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae4d14e846e85:0x4a93d8ffc301d3df!8m2!3d-7.8542625!4d110.1330156!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUm9jblZtVVRkQlJSQULgAQD6AQQIABAq!16s%2Fg%2F11byzfc5__?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J19" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Baitul+Karim/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae4d14e846e85:0x4a93d8ffc301d3df!8m2!3d-7.8542625!4d110.1330156!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUm9jblZtVVRkQlJSQULgAQD6AQQIABAq!16s%2Fg%2F11byzfc5__?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -1145,25 +1122,24 @@
           <t>0856-4369-8546</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr"/>
+      <c r="E20" t="n">
+        <v>5</v>
+      </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>-7.865653</v>
       </c>
       <c r="G20" t="n">
-        <v>-7.865653</v>
-      </c>
-      <c r="H20" t="n">
         <v>110.150402</v>
       </c>
-      <c r="I20" t="b">
-        <v>0</v>
+      <c r="H20" t="b">
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/GBI+Miracle+Service+Wates/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb376bafccbd:0x8640c3eacea4f428!8m2!3d-7.8656527!4d110.1504017!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGY2h1cmNo4AEA!16s%2Fg%2F11dxnw1fwk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J20" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/GBI+Miracle+Service+Wates/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb376bafccbd:0x8640c3eacea4f428!8m2!3d-7.8656527!4d110.1504017!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGY2h1cmNo4AEA!16s%2Fg%2F11dxnw1fwk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
         <is>
           <t>5 tahun lalu</t>
         </is>
@@ -1182,25 +1158,24 @@
       </c>
       <c r="C21" t="inlineStr"/>
       <c r="D21" t="inlineStr"/>
-      <c r="E21" t="inlineStr"/>
+      <c r="E21" t="n">
+        <v>4</v>
+      </c>
       <c r="F21" t="n">
-        <v>4</v>
+        <v>-7.838107</v>
       </c>
       <c r="G21" t="n">
-        <v>-7.838107</v>
-      </c>
-      <c r="H21" t="n">
         <v>110.177691</v>
       </c>
-      <c r="I21" t="b">
-        <v>0</v>
+      <c r="H21" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MASJID+AR+RAHMAN+DERWOLO/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afafae8f94639:0x8472c52ce42eab0f!8m2!3d-7.8381074!4d110.1776911!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJvTW1WNllXdG5SUkFC4AEA-gEECAAQGQ!16s%2Fg%2F11bwfmj5hk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J21" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MASJID+AR+RAHMAN+DERWOLO/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afafae8f94639:0x8472c52ce42eab0f!8m2!3d-7.8381074!4d110.1776911!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJvTW1WNllXdG5SUkFC4AEA-gEECAAQGQ!16s%2Fg%2F11bwfmj5hk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -1219,25 +1194,24 @@
       </c>
       <c r="C22" t="inlineStr"/>
       <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F22" t="n">
-        <v>4.8</v>
+        <v>-7.866146</v>
       </c>
       <c r="G22" t="n">
-        <v>-7.866146</v>
-      </c>
-      <c r="H22" t="n">
         <v>110.167788</v>
       </c>
-      <c r="I22" t="b">
-        <v>0</v>
+      <c r="H22" t="b">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Hidayah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb9cc54491af:0xafa44ea4249fbd9f!8m2!3d-7.8661463!4d110.1677882!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlNiMHhQYjAxQkVBReABAPoBBAhuEEc!16s%2Fg%2F11hdnlfmws?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J22" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Hidayah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb9cc54491af:0xafa44ea4249fbd9f!8m2!3d-7.8661463!4d110.1677882!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUlNiMHhQYjAxQkVBReABAPoBBAhuEEc!16s%2Fg%2F11hdnlfmws?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
         <is>
           <t>5 hari lalu</t>
         </is>
@@ -1264,25 +1238,24 @@
           <t>(0274) 774625</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F23" t="n">
-        <v>4.7</v>
+        <v>-7.853</v>
       </c>
       <c r="G23" t="n">
-        <v>-7.853</v>
-      </c>
-      <c r="H23" t="n">
         <v>110.164088</v>
       </c>
-      <c r="I23" t="b">
-        <v>0</v>
+      <c r="H23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Baiturrahman+UNY+Kampus+Wates/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb18a84858e3:0xefd218d777a37160!8m2!3d-7.8530002!4d110.1640876!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnNOaTFEU1hOQlJSQULgAQD6AQQIABA9!16s%2Fg%2F11cm04492h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J23" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Baiturrahman+UNY+Kampus+Wates/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb18a84858e3:0xefd218d777a37160!8m2!3d-7.8530002!4d110.1640876!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnNOaTFEU1hOQlJSQULgAQD6AQQIABA9!16s%2Fg%2F11cm04492h?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1301,25 +1274,24 @@
       </c>
       <c r="C24" t="inlineStr"/>
       <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="E24" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F24" t="n">
-        <v>4.8</v>
+        <v>-7.817207</v>
       </c>
       <c r="G24" t="n">
-        <v>-7.817207</v>
-      </c>
-      <c r="H24" t="n">
         <v>110.151956</v>
       </c>
-      <c r="I24" t="b">
-        <v>0</v>
+      <c r="H24" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Barokah+Pereng/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afab00118fb81:0x2d358349451a085!8m2!3d-7.8172068!4d110.1519557!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxjRTR5UzNSM1JSQULgAQD6AQQITxAb!16s%2Fg%2F11cmh5kvg5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J24" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Barokah+Pereng/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afab00118fb81:0x2d358349451a085!8m2!3d-7.8172068!4d110.1519557!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUmxjRTR5UzNSM1JSQULgAQD6AQQITxAb!16s%2Fg%2F11cmh5kvg5?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -1338,25 +1310,24 @@
       </c>
       <c r="C25" t="inlineStr"/>
       <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="E25" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F25" t="n">
-        <v>4.4</v>
+        <v>-7.844269</v>
       </c>
       <c r="G25" t="n">
-        <v>-7.844269</v>
-      </c>
-      <c r="H25" t="n">
         <v>110.166579</v>
       </c>
-      <c r="I25" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" t="inlineStr">
+      <c r="H25" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al-Huda+MAN+1+KULON+PROGO/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afae0e231a8b5:0x2db1b44810dd58e5!8m2!3d-7.8442687!4d110.1665787!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11f15fg240?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1371,25 +1342,24 @@
       </c>
       <c r="C26" t="inlineStr"/>
       <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr"/>
+      <c r="E26" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F26" t="n">
-        <v>4.6</v>
+        <v>-7.856024</v>
       </c>
       <c r="G26" t="n">
-        <v>-7.856024</v>
-      </c>
-      <c r="H26" t="n">
         <v>110.157438</v>
       </c>
-      <c r="I26" t="b">
-        <v>0</v>
+      <c r="H26" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/masjid+At-Taubat/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb249adca41f:0xd9b3c26189c05d00!8m2!3d-7.8560235!4d110.1574381!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTktNamRoTFc1M1JSQULgAQD6AQQIABAc!16s%2Fg%2F11bycm16xd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J26" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/masjid+At-Taubat/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb249adca41f:0xd9b3c26189c05d00!8m2!3d-7.8560235!4d110.1574381!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTktNamRoTFc1M1JSQULgAQD6AQQIABAc!16s%2Fg%2F11bycm16xd?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -1408,25 +1378,24 @@
       </c>
       <c r="C27" t="inlineStr"/>
       <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+      <c r="E27" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F27" t="n">
-        <v>4.3</v>
+        <v>-7.865867</v>
       </c>
       <c r="G27" t="n">
-        <v>-7.865867</v>
-      </c>
-      <c r="H27" t="n">
         <v>110.175324</v>
       </c>
-      <c r="I27" t="b">
-        <v>0</v>
+      <c r="H27" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Polres+Kulon+Progo/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1299c3a8a7:0xae7b817929872512!8m2!3d-7.8658667!4d110.1753244!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlViemR4UTJoQlJSQULgAQD6AQQIABAM!16s%2Fg%2F11f0_klfk4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J27" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Polres+Kulon+Progo/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1299c3a8a7:0xae7b817929872512!8m2!3d-7.8658667!4d110.1753244!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlViemR4UTJoQlJSQULgAQD6AQQIABAM!16s%2Fg%2F11f0_klfk4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -1445,25 +1414,24 @@
       </c>
       <c r="C28" t="inlineStr"/>
       <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="E28" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F28" t="n">
-        <v>4.5</v>
+        <v>-7.812678</v>
       </c>
       <c r="G28" t="n">
-        <v>-7.812678</v>
-      </c>
-      <c r="H28" t="n">
         <v>110.140948</v>
       </c>
-      <c r="I28" t="b">
-        <v>0</v>
+      <c r="H28" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurrohiim/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb11232dcd65:0x4efad73c7f79afe2!8m2!3d-7.8126777!4d110.1409478!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11j92dw4gj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J28" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurrohiim/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb11232dcd65:0x4efad73c7f79afe2!8m2!3d-7.8126777!4d110.1409478!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11j92dw4gj?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1486,25 +1454,24 @@
         </is>
       </c>
       <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
+      <c r="E29" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F29" t="n">
-        <v>4.7</v>
+        <v>-7.841547</v>
       </c>
       <c r="G29" t="n">
-        <v>-7.841547</v>
-      </c>
-      <c r="H29" t="n">
         <v>110.154663</v>
       </c>
-      <c r="I29" t="b">
-        <v>0</v>
+      <c r="H29" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+-+Huda+Gebangan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afada342b2afd:0x4e396dc8e65a2434!8m2!3d-7.8415475!4d110.1546634!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFOVzlETldOQkVBReABAPoBBAgAEEE!16s%2Fg%2F11c30qnl_4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J29" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+-+Huda+Gebangan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afada342b2afd:0x4e396dc8e65a2434!8m2!3d-7.8415475!4d110.1546634!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjFOVzlETldOQkVBReABAPoBBAgAEEE!16s%2Fg%2F11c30qnl_4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1523,25 +1490,24 @@
       </c>
       <c r="C30" t="inlineStr"/>
       <c r="D30" t="inlineStr"/>
-      <c r="E30" t="inlineStr"/>
+      <c r="E30" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F30" t="n">
-        <v>4.7</v>
+        <v>-7.886527</v>
       </c>
       <c r="G30" t="n">
-        <v>-7.886527</v>
-      </c>
-      <c r="H30" t="n">
         <v>110.130359</v>
       </c>
-      <c r="I30" t="b">
-        <v>0</v>
+      <c r="H30" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+Huda+Seworan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae4a8c172090d:0x4f554d22cdfd9e95!8m2!3d-7.8865274!4d110.1303593!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFhMDVQVlhKM1JSQULgAQD6AQQIABAO!16s%2Fg%2F11cn9lvfst?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J30" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+Huda+Seworan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae4a8c172090d:0x4f554d22cdfd9e95!8m2!3d-7.8865274!4d110.1303593!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnFhMDVQVlhKM1JSQULgAQD6AQQIABAO!16s%2Fg%2F11cn9lvfst?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1560,25 +1526,24 @@
       </c>
       <c r="C31" t="inlineStr"/>
       <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr"/>
+      <c r="E31" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F31" t="n">
-        <v>4.5</v>
+        <v>-7.833022</v>
       </c>
       <c r="G31" t="n">
-        <v>-7.833022</v>
-      </c>
-      <c r="H31" t="n">
         <v>110.202254</v>
       </c>
-      <c r="I31" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" t="inlineStr">
+      <c r="H31" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Baiturrahman/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afa4505a9849b:0x645e76eff7c880ca!8m2!3d-7.8330216!4d110.2022538!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11dflh9f41?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1593,25 +1558,24 @@
       </c>
       <c r="C32" t="inlineStr"/>
       <c r="D32" t="inlineStr"/>
-      <c r="E32" t="inlineStr"/>
+      <c r="E32" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F32" t="n">
-        <v>4.5</v>
+        <v>-7.823492</v>
       </c>
       <c r="G32" t="n">
-        <v>-7.823492</v>
-      </c>
-      <c r="H32" t="n">
         <v>110.148002</v>
       </c>
-      <c r="I32" t="b">
-        <v>0</v>
+      <c r="H32" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MASJID+Al-MUTAQIN+-+Jelok/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afab6c215e9bb:0x7c767880583dfad4!8m2!3d-7.8234924!4d110.1480019!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVkMlYyZW5wM1JSQULgAQD6AQQIABAW!16s%2Fg%2F11b75f4bl3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J32" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MASJID+Al-MUTAQIN+-+Jelok/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afab6c215e9bb:0x7c767880583dfad4!8m2!3d-7.8234924!4d110.1480019!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUjVkMlYyZW5wM1JSQULgAQD6AQQIABAW!16s%2Fg%2F11b75f4bl3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1630,25 +1594,24 @@
       </c>
       <c r="C33" t="inlineStr"/>
       <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr"/>
+      <c r="E33" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F33" t="n">
-        <v>4.7</v>
+        <v>-7.842948</v>
       </c>
       <c r="G33" t="n">
-        <v>-7.842948</v>
-      </c>
-      <c r="H33" t="n">
         <v>110.141535</v>
       </c>
-      <c r="I33" t="b">
-        <v>0</v>
+      <c r="H33" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Iman+Suruhan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afad35791023f:0x2b44ba26895ff454!8m2!3d-7.8429484!4d110.1415345!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXlYM05ZWHpSblJSQULgAQD6AQQIABAS!16s%2Fg%2F11g9fmrr4l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J33" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Iman+Suruhan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afad35791023f:0x2b44ba26895ff454!8m2!3d-7.8429484!4d110.1415345!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTXlYM05ZWHpSblJSQULgAQD6AQQIABAS!16s%2Fg%2F11g9fmrr4l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -1667,25 +1630,24 @@
       </c>
       <c r="C34" t="inlineStr"/>
       <c r="D34" t="inlineStr"/>
-      <c r="E34" t="inlineStr"/>
+      <c r="E34" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F34" t="n">
-        <v>4.6</v>
+        <v>-7.832398</v>
       </c>
       <c r="G34" t="n">
-        <v>-7.832398</v>
-      </c>
-      <c r="H34" t="n">
         <v>110.181535</v>
       </c>
-      <c r="I34" t="b">
-        <v>0</v>
+      <c r="H34" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Derwolo+Pengasih+Pengasih+Kulon+Progo/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afaf11fa29943:0xb036c7f470d5e12b!8m2!3d-7.8323982!4d110.1815354!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11clszgn_j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J34" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Derwolo+Pengasih+Pengasih+Kulon+Progo/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afaf11fa29943:0xb036c7f470d5e12b!8m2!3d-7.8323982!4d110.1815354!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11clszgn_j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -1704,25 +1666,24 @@
       </c>
       <c r="C35" t="inlineStr"/>
       <c r="D35" t="inlineStr"/>
-      <c r="E35" t="inlineStr"/>
+      <c r="E35" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F35" t="n">
-        <v>4.6</v>
+        <v>-7.845406</v>
       </c>
       <c r="G35" t="n">
-        <v>-7.845406</v>
-      </c>
-      <c r="H35" t="n">
         <v>110.172368</v>
       </c>
-      <c r="I35" t="b">
-        <v>0</v>
+      <c r="H35" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Iman/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afae25ce77ff7:0xd36630d4357b8f9b!8m2!3d-7.8454062!4d110.172368!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11bzq3c0__?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J35" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Iman/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afae25ce77ff7:0xd36630d4357b8f9b!8m2!3d-7.8454062!4d110.172368!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11bzq3c0__?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -1745,25 +1706,24 @@
           <t>0856-4358-0370</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr"/>
+      <c r="E36" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F36" t="n">
-        <v>4.9</v>
+        <v>-7.836849</v>
       </c>
       <c r="G36" t="n">
-        <v>-7.836849</v>
-      </c>
-      <c r="H36" t="n">
         <v>110.146701</v>
       </c>
-      <c r="I36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J36" t="inlineStr">
+      <c r="H36" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al+Hidayah+Kroco/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7aface0c236879:0xf33324a667e6ac9e!8m2!3d-7.8368486!4d110.1467012!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11csqr4g08?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1778,25 +1738,24 @@
       </c>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr"/>
+      <c r="E37" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F37" t="n">
-        <v>3.5</v>
+        <v>-7.841726</v>
       </c>
       <c r="G37" t="n">
-        <v>-7.841726</v>
-      </c>
-      <c r="H37" t="n">
         <v>110.172151</v>
       </c>
-      <c r="I37" t="b">
-        <v>0</v>
+      <c r="H37" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Musola+Al+Baqoroh+Dinas+Peternakan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afae476608ac5:0xda38ecc7676cf40!8m2!3d-7.8417256!4d110.1721506!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11bzq2t_lm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J37" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Musola+Al+Baqoroh+Dinas+Peternakan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afae476608ac5:0xda38ecc7676cf40!8m2!3d-7.8417256!4d110.1721506!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11bzq2t_lm?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
         <is>
           <t>7 tahun lalu</t>
         </is>
@@ -1815,25 +1774,24 @@
       </c>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="inlineStr"/>
-      <c r="E38" t="inlineStr"/>
+      <c r="E38" t="n">
+        <v>5</v>
+      </c>
       <c r="F38" t="n">
-        <v>5</v>
+        <v>-7.819726</v>
       </c>
       <c r="G38" t="n">
-        <v>-7.819726</v>
-      </c>
-      <c r="H38" t="n">
         <v>110.15429</v>
       </c>
-      <c r="I38" t="b">
-        <v>0</v>
+      <c r="H38" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Darusalam/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afaba5996b23f:0xb230888756c4dbd3!8m2!3d-7.8197262!4d110.15429!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11clyf3pp3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J38" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Darusalam/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afaba5996b23f:0xb230888756c4dbd3!8m2!3d-7.8197262!4d110.15429!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11clyf3pp3?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
         <is>
           <t>8 tahun lalu</t>
         </is>
@@ -1856,25 +1814,24 @@
           <t>0818-0264-4187</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr"/>
+      <c r="E39" t="n">
+        <v>4.2</v>
+      </c>
       <c r="F39" t="n">
-        <v>4.2</v>
+        <v>-7.797129</v>
       </c>
       <c r="G39" t="n">
-        <v>-7.797129</v>
-      </c>
-      <c r="H39" t="n">
         <v>110.169353</v>
       </c>
-      <c r="I39" t="b">
-        <v>0</v>
+      <c r="H39" t="b">
+        <v>0</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nur+Iman+Banaran/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7af0723b352629:0x583b4d6b7a3c4956!8m2!3d-7.7971294!4d110.1693525!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhhVFp4ZEhCQlJSQULgAQD6AQQIABBF!16s%2Fg%2F11c59_jrb_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J39" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nur+Iman+Banaran/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7af0723b352629:0x583b4d6b7a3c4956!8m2!3d-7.7971294!4d110.1693525!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUkhhVFp4ZEhCQlJSQULgAQD6AQQIABBF!16s%2Fg%2F11c59_jrb_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -1893,25 +1850,24 @@
       </c>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="inlineStr"/>
-      <c r="E40" t="inlineStr"/>
+      <c r="E40" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F40" t="n">
-        <v>4.6</v>
+        <v>-7.849519</v>
       </c>
       <c r="G40" t="n">
-        <v>-7.849519</v>
-      </c>
-      <c r="H40" t="n">
         <v>110.180452</v>
       </c>
-      <c r="I40" t="b">
-        <v>0</v>
+      <c r="H40" t="b">
+        <v>0</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Khoirul+Jannah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb2886b3ab0f:0x14bade093e81ddd2!8m2!3d-7.849519!4d110.180452!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11g0hqv0my?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J40" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Khoirul+Jannah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb2886b3ab0f:0x14bade093e81ddd2!8m2!3d-7.849519!4d110.180452!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11g0hqv0my?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -1931,22 +1887,21 @@
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr"/>
-      <c r="F41" t="inlineStr"/>
+      <c r="F41" t="n">
+        <v>-7.856068</v>
+      </c>
       <c r="G41" t="n">
-        <v>-7.856068</v>
-      </c>
-      <c r="H41" t="n">
         <v>110.142296</v>
       </c>
-      <c r="I41" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" t="inlineStr">
+      <c r="H41" t="b">
+        <v>0</v>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+Roudhotut+Tholibin/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb8f19cbc2fd:0x3d7bd7286bb5d50c!8m2!3d-7.8560677!4d110.1422962!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJQTkhGTFlteDNSUkFC4AEA-gEECAAQKg!16s%2Fg%2F11j7v6yyrs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1961,25 +1916,24 @@
       </c>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr"/>
+      <c r="E42" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F42" t="n">
-        <v>4.6</v>
+        <v>-7.868906</v>
       </c>
       <c r="G42" t="n">
-        <v>-7.868906</v>
-      </c>
-      <c r="H42" t="n">
         <v>110.151869</v>
       </c>
-      <c r="I42" t="b">
-        <v>0</v>
+      <c r="H42" t="b">
+        <v>0</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Ma'ruf+Klayonan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb480420d809:0xdacfd849396804e8!8m2!3d-7.868906!4d110.1518685!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhjWE54VTNWUlJSQULgAQD6AQQIABAg!16s%2Fg%2F11b66cgc9b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J42" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Ma'ruf+Klayonan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb480420d809:0xdacfd849396804e8!8m2!3d-7.868906!4d110.1518685!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhjWE54VTNWUlJSQULgAQD6AQQIABAg!16s%2Fg%2F11b66cgc9b?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K42" t="inlineStr">
         <is>
           <t>4 hari lalu</t>
         </is>
@@ -1998,25 +1952,24 @@
       </c>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr"/>
+      <c r="E43" t="n">
+        <v>5</v>
+      </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>-7.851278</v>
       </c>
       <c r="G43" t="n">
-        <v>-7.851278</v>
-      </c>
-      <c r="H43" t="n">
         <v>110.173942</v>
       </c>
-      <c r="I43" t="b">
-        <v>0</v>
+      <c r="H43" t="b">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Haq+(LDII)/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1c93feda6f:0xba920ca8006c5da9!8m2!3d-7.8512777!4d110.1739424!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkhNM0pNT0ZCQkVBReABAPoBBAgAEDk!16s%2Fg%2F11c6cf_kjh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J43" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Haq+(LDII)/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1c93feda6f:0xba920ca8006c5da9!8m2!3d-7.8512777!4d110.1739424!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUkhNM0pNT0ZCQkVBReABAPoBBAgAEDk!16s%2Fg%2F11c6cf_kjh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2035,25 +1988,24 @@
       </c>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr"/>
+      <c r="E44" t="n">
+        <v>5</v>
+      </c>
       <c r="F44" t="n">
-        <v>5</v>
+        <v>-7.835372</v>
       </c>
       <c r="G44" t="n">
-        <v>-7.835372</v>
-      </c>
-      <c r="H44" t="n">
         <v>110.16009</v>
       </c>
-      <c r="I44" t="b">
-        <v>0</v>
+      <c r="H44" t="b">
+        <v>0</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Muttaqin+Klegen+Sendangsari/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbda60258ebb:0xc5d64af0743f0d26!8m2!3d-7.8353719!4d110.1600898!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU51ZGpSMlkyMTNSUkFC4AEA-gEECAAQEw!16s%2Fg%2F11j2ywzndt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J44" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Muttaqin+Klegen+Sendangsari/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbda60258ebb:0xc5d64af0743f0d26!8m2!3d-7.8353719!4d110.1600898!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVU51ZGpSMlkyMTNSUkFC4AEA-gEECAAQEw!16s%2Fg%2F11j2ywzndt?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K44" t="inlineStr">
         <is>
           <t>4 bulan lalu</t>
         </is>
@@ -2072,25 +2024,24 @@
       </c>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="inlineStr"/>
-      <c r="E45" t="inlineStr"/>
+      <c r="E45" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F45" t="n">
-        <v>4.1</v>
+        <v>-7.802978</v>
       </c>
       <c r="G45" t="n">
-        <v>-7.802978</v>
-      </c>
-      <c r="H45" t="n">
         <v>110.165074</v>
       </c>
-      <c r="I45" t="b">
-        <v>0</v>
+      <c r="H45" t="b">
+        <v>0</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Pendem(markas+majelis+sholawat+Nurul+Musthofa)/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afac154a5103b:0x712ed74239952382!8m2!3d-7.8029781!4d110.165074!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXlhVzlxUkRoQlJSQULgAQD6AQQIABA5!16s%2Fg%2F1pzshfz6g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J45" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Pendem(markas+majelis+sholawat+Nurul+Musthofa)/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afac154a5103b:0x712ed74239952382!8m2!3d-7.8029781!4d110.165074!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUXlhVzlxUkRoQlJSQULgAQD6AQQIABA5!16s%2Fg%2F1pzshfz6g?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2109,25 +2060,24 @@
       </c>
       <c r="C46" t="inlineStr"/>
       <c r="D46" t="inlineStr"/>
-      <c r="E46" t="inlineStr"/>
+      <c r="E46" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F46" t="n">
-        <v>4.4</v>
+        <v>-7.790066</v>
       </c>
       <c r="G46" t="n">
-        <v>-7.790066</v>
-      </c>
-      <c r="H46" t="n">
         <v>110.167022</v>
       </c>
-      <c r="I46" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="H46" t="b">
+        <v>0</v>
+      </c>
+      <c r="I46" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Baitul+Rokhim+Sebatur/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7af06b78987539:0x6cc3dcf282183b1e!8m2!3d-7.790066!4d110.1670223!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11c48w11v2?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -2146,25 +2096,24 @@
           <t>0895-3229-11741</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr"/>
+      <c r="E47" t="n">
+        <v>5</v>
+      </c>
       <c r="F47" t="n">
-        <v>5</v>
+        <v>-7.824847</v>
       </c>
       <c r="G47" t="n">
-        <v>-7.824847</v>
-      </c>
-      <c r="H47" t="n">
         <v>110.169855</v>
       </c>
-      <c r="I47" t="b">
-        <v>0</v>
+      <c r="H47" t="b">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pondok+Pesantren+Nurul+Dholam+2+paingan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb217c97cb55:0xda6d6e41f7b2804c!8m2!3d-7.824847!4d110.1698551!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DWDA1bVkxRlJFQUXgAQD6AQQIABAO!16s%2Fg%2F11sd894myq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J47" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pondok+Pesantren+Nurul+Dholam+2+paingan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb217c97cb55:0xda6d6e41f7b2804c!8m2!3d-7.824847!4d110.1698551!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5DWDA1bVkxRlJFQUXgAQD6AQQIABAO!16s%2Fg%2F11sd894myq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K47" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2183,25 +2132,24 @@
       </c>
       <c r="C48" t="inlineStr"/>
       <c r="D48" t="inlineStr"/>
-      <c r="E48" t="inlineStr"/>
+      <c r="E48" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F48" t="n">
-        <v>4.6</v>
+        <v>-7.857352</v>
       </c>
       <c r="G48" t="n">
-        <v>-7.857352</v>
-      </c>
-      <c r="H48" t="n">
         <v>110.173463</v>
       </c>
-      <c r="I48" t="b">
-        <v>0</v>
+      <c r="H48" t="b">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Siti+Aisyah+Binti+Abu+Bakr/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1a83a95021:0x26d95b67efd1e157!8m2!3d-7.8573524!4d110.1734633!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXlla2xwVVVwUkVBReABAPoBBAgAECo!16s%2Fg%2F11bvv4tlzl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J48" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Siti+Aisyah+Binti+Abu+Bakr/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1a83a95021:0x26d95b67efd1e157!8m2!3d-7.8573524!4d110.1734633!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXlla2xwVVVwUkVBReABAPoBBAgAECo!16s%2Fg%2F11bvv4tlzl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -2220,25 +2168,24 @@
       </c>
       <c r="C49" t="inlineStr"/>
       <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr"/>
+      <c r="E49" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F49" t="n">
-        <v>4.4</v>
+        <v>-7.850563</v>
       </c>
       <c r="G49" t="n">
-        <v>-7.850563</v>
-      </c>
-      <c r="H49" t="n">
         <v>110.168366</v>
       </c>
-      <c r="I49" t="b">
-        <v>0</v>
+      <c r="H49" t="b">
+        <v>0</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Amin/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1eec8a75e1:0x7b5c4a335c75d06e!8m2!3d-7.8505626!4d110.1683661!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxNbUV0TmxkQkVBReABAPoBBAgAEA0!16s%2Fg%2F11c0rtyl8z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J49" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Amin/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1eec8a75e1:0x7b5c4a335c75d06e!8m2!3d-7.8505626!4d110.1683661!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxNbUV0TmxkQkVBReABAPoBBAgAEA0!16s%2Fg%2F11c0rtyl8z?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K49" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -2257,25 +2204,24 @@
       </c>
       <c r="C50" t="inlineStr"/>
       <c r="D50" t="inlineStr"/>
-      <c r="E50" t="inlineStr"/>
+      <c r="E50" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F50" t="n">
-        <v>4.5</v>
+        <v>-7.821863</v>
       </c>
       <c r="G50" t="n">
-        <v>-7.821863</v>
-      </c>
-      <c r="H50" t="n">
         <v>110.170828</v>
       </c>
-      <c r="I50" t="b">
-        <v>0</v>
+      <c r="H50" t="b">
+        <v>0</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Baitussalam+Brangkal/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afa93e55985b1:0x90bccc91810d7573!8m2!3d-7.8218625!4d110.1708281!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11cm06p_pz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J50" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Baitussalam+Brangkal/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afa93e55985b1:0x90bccc91810d7573!8m2!3d-7.8218625!4d110.1708281!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11cm06p_pz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2294,25 +2240,24 @@
       </c>
       <c r="C51" t="inlineStr"/>
       <c r="D51" t="inlineStr"/>
-      <c r="E51" t="inlineStr"/>
+      <c r="E51" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F51" t="n">
-        <v>4.6</v>
+        <v>-7.863614</v>
       </c>
       <c r="G51" t="n">
-        <v>-7.863614</v>
-      </c>
-      <c r="H51" t="n">
         <v>110.154663</v>
       </c>
-      <c r="I51" t="b">
-        <v>0</v>
+      <c r="H51" t="b">
+        <v>0</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Manar/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb255f47c77b:0xb7581883dd4db67a!8m2!3d-7.863614!4d110.1546634!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnVMWFJJYVhSM1JSQULgAQD6AQQIABAP!16s%2Fg%2F11f8m7w9wn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J51" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Manar/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb255f47c77b:0xb7581883dd4db67a!8m2!3d-7.863614!4d110.1546634!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnVMWFJJYVhSM1JSQULgAQD6AQQIABAP!16s%2Fg%2F11f8m7w9wn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2331,25 +2276,24 @@
       </c>
       <c r="C52" t="inlineStr"/>
       <c r="D52" t="inlineStr"/>
-      <c r="E52" t="inlineStr"/>
+      <c r="E52" t="n">
+        <v>5</v>
+      </c>
       <c r="F52" t="n">
-        <v>5</v>
+        <v>-7.84948</v>
       </c>
       <c r="G52" t="n">
-        <v>-7.84948</v>
-      </c>
-      <c r="H52" t="n">
         <v>110.17529</v>
       </c>
-      <c r="I52" t="b">
-        <v>0</v>
+      <c r="H52" t="b">
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/TPA+AL+ICHWAN/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbe8df80ddfb:0xb578791e72ca8e4c!8m2!3d-7.8494801!4d110.1752895!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEVcmVsaWdpb3VzX2Rlc3RpbmF0aW9u4AEA!16s%2Fg%2F11tf8rt2qs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J52" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/TPA+AL+ICHWAN/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbe8df80ddfb:0xb578791e72ca8e4c!8m2!3d-7.8494801!4d110.1752895!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEVcmVsaWdpb3VzX2Rlc3RpbmF0aW9u4AEA!16s%2Fg%2F11tf8rt2qs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2368,25 +2312,24 @@
       </c>
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr"/>
+      <c r="E53" t="n">
+        <v>5</v>
+      </c>
       <c r="F53" t="n">
-        <v>5</v>
+        <v>-7.845521</v>
       </c>
       <c r="G53" t="n">
-        <v>-7.845521</v>
-      </c>
-      <c r="H53" t="n">
         <v>110.17788</v>
       </c>
-      <c r="I53" t="b">
-        <v>0</v>
+      <c r="H53" t="b">
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/PENDOPO+AL+KHIDMAH+KULON+PROGO/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb00092ee23f:0x65d96401cdb141a5!8m2!3d-7.8455212!4d110.1778799!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUk1OVTlJV0hSblJSQULgAQD6AQQIABAX!16s%2Fg%2F11w1qr_2kh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J53" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/PENDOPO+AL+KHIDMAH+KULON+PROGO/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb00092ee23f:0x65d96401cdb141a5!8m2!3d-7.8455212!4d110.1778799!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUk1OVTlJV0hSblJSQULgAQD6AQQIABAX!16s%2Fg%2F11w1qr_2kh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -2405,25 +2348,24 @@
       </c>
       <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr"/>
-      <c r="E54" t="inlineStr"/>
+      <c r="E54" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F54" t="n">
-        <v>4.8</v>
+        <v>-7.90968</v>
       </c>
       <c r="G54" t="n">
-        <v>-7.90968</v>
-      </c>
-      <c r="H54" t="n">
         <v>110.121047</v>
       </c>
-      <c r="I54" t="b">
-        <v>0</v>
+      <c r="H54" t="b">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Iman/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae340c230670d:0xd3e8da3fb685e14a!8m2!3d-7.9096799!4d110.1210469!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTNkblJ4WHpaUlJSQULgAQD6AQQIABAv!16s%2Fg%2F11c6rwdkd9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J54" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Iman/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae340c230670d:0xd3e8da3fb685e14a!8m2!3d-7.9096799!4d110.1210469!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTTNkblJ4WHpaUlJSQULgAQD6AQQIABAv!16s%2Fg%2F11c6rwdkd9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -2442,25 +2384,24 @@
       </c>
       <c r="C55" t="inlineStr"/>
       <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr"/>
+      <c r="E55" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F55" t="n">
-        <v>4.6</v>
+        <v>-7.834681</v>
       </c>
       <c r="G55" t="n">
-        <v>-7.834681</v>
-      </c>
-      <c r="H55" t="n">
         <v>110.156472</v>
       </c>
-      <c r="I55" t="b">
-        <v>0</v>
+      <c r="H55" t="b">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Fatah+Kroco/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afac45fa94907:0x7af74dd2de2783f4!8m2!3d-7.8346808!4d110.156472!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11bzyq17r0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J55" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Fatah+Kroco/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afac45fa94907:0x7af74dd2de2783f4!8m2!3d-7.8346808!4d110.156472!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11bzyq17r0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2479,25 +2420,24 @@
       </c>
       <c r="C56" t="inlineStr"/>
       <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr"/>
+      <c r="E56" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F56" t="n">
-        <v>4.8</v>
+        <v>-7.847812</v>
       </c>
       <c r="G56" t="n">
-        <v>-7.847812</v>
-      </c>
-      <c r="H56" t="n">
         <v>110.198422</v>
       </c>
-      <c r="I56" t="b">
-        <v>0</v>
+      <c r="H56" t="b">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Fajar/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbad735d49f5:0x9a3c823ddb07f414!8m2!3d-7.8478125!4d110.1984219!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11c467jz4l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J56" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Fajar/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbad735d49f5:0x9a3c823ddb07f414!8m2!3d-7.8478125!4d110.1984219!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11c467jz4l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2516,25 +2456,24 @@
       </c>
       <c r="C57" t="inlineStr"/>
       <c r="D57" t="inlineStr"/>
-      <c r="E57" t="inlineStr"/>
+      <c r="E57" t="n">
+        <v>5</v>
+      </c>
       <c r="F57" t="n">
-        <v>5</v>
+        <v>-7.856174</v>
       </c>
       <c r="G57" t="n">
-        <v>-7.856174</v>
-      </c>
-      <c r="H57" t="n">
         <v>110.144628</v>
       </c>
-      <c r="I57" t="b">
-        <v>0</v>
+      <c r="H57" t="b">
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Kassyamsi/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbcb6b98a8a7:0xd3b7140ce85a4f99!8m2!3d-7.856174!4d110.1446279!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjBlVWx5WVU5QkVBReABAPoBBAgAEDA!16s%2Fg%2F11k56shhcq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J57" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Kassyamsi/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbcb6b98a8a7:0xd3b7140ce85a4f99!8m2!3d-7.856174!4d110.1446279!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTjBlVWx5WVU5QkVBReABAPoBBAgAEDA!16s%2Fg%2F11k56shhcq?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -2557,25 +2496,24 @@
           <t>0851-0152-1874</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr"/>
+      <c r="E58" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F58" t="n">
-        <v>4.5</v>
+        <v>-7.833682</v>
       </c>
       <c r="G58" t="n">
-        <v>-7.833682</v>
-      </c>
-      <c r="H58" t="n">
         <v>110.166687</v>
       </c>
-      <c r="I58" t="b">
-        <v>0</v>
+      <c r="H58" t="b">
+        <v>0</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Hidayah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afae9a8f25691:0x2303a6ab7347c68e!8m2!3d-7.8336823!4d110.1666867!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11gbwtrgkh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J58" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Hidayah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afae9a8f25691:0x2303a6ab7347c68e!8m2!3d-7.8336823!4d110.1666867!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11gbwtrgkh?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2594,25 +2532,24 @@
       </c>
       <c r="C59" t="inlineStr"/>
       <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr"/>
+      <c r="E59" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F59" t="n">
-        <v>4.6</v>
+        <v>-7.853412</v>
       </c>
       <c r="G59" t="n">
-        <v>-7.853412</v>
-      </c>
-      <c r="H59" t="n">
         <v>110.173047</v>
       </c>
-      <c r="I59" t="b">
-        <v>0</v>
+      <c r="H59" t="b">
+        <v>0</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+Haq/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1b0a9b69e1:0xef0301fa12327473!8m2!3d-7.8534123!4d110.1730466!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhYMDlEZVcxUlJSQULgAQD6AQQIABA_!16s%2Fg%2F11cn0skrmk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J59" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+Haq/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1b0a9b69e1:0xef0301fa12327473!8m2!3d-7.8534123!4d110.1730466!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhYMDlEZVcxUlJSQULgAQD6AQQIABA_!16s%2Fg%2F11cn0skrmk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -2631,25 +2568,24 @@
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr"/>
-      <c r="E60" t="inlineStr"/>
+      <c r="E60" t="n">
+        <v>5</v>
+      </c>
       <c r="F60" t="n">
-        <v>5</v>
+        <v>-7.814119</v>
       </c>
       <c r="G60" t="n">
-        <v>-7.814119</v>
-      </c>
-      <c r="H60" t="n">
         <v>110.154708</v>
       </c>
-      <c r="I60" t="b">
-        <v>0</v>
+      <c r="H60" t="b">
+        <v>0</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Husna/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb244a01f765:0x2a8f68670bda3f22!8m2!3d-7.8141193!4d110.154708!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11g18f8wcs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J60" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Husna/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb244a01f765:0x2a8f68670bda3f22!8m2!3d-7.8141193!4d110.154708!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11g18f8wcs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2676,25 +2612,24 @@
           <t>0812-1541-4565</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr"/>
+      <c r="E61" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F61" t="n">
-        <v>4.9</v>
+        <v>-7.865861</v>
       </c>
       <c r="G61" t="n">
-        <v>-7.865861</v>
-      </c>
-      <c r="H61" t="n">
         <v>110.164194</v>
       </c>
-      <c r="I61" t="b">
-        <v>0</v>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="H61" t="b">
+        <v>0</v>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/MASJID+AL+IMAN+(LDII)/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb3fd90af219:0xd07cf9c36a53a2d5!8m2!3d-7.8658614!4d110.1641939!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTJOR0ZUU1RaQlJSQULgAQD6AQQIABAj!16s%2Fg%2F11gh35cq9s?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr"/>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2709,25 +2644,24 @@
       </c>
       <c r="C62" t="inlineStr"/>
       <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr"/>
+      <c r="E62" t="n">
+        <v>5</v>
+      </c>
       <c r="F62" t="n">
-        <v>5</v>
+        <v>-7.809356</v>
       </c>
       <c r="G62" t="n">
-        <v>-7.809356</v>
-      </c>
-      <c r="H62" t="n">
         <v>110.165174</v>
       </c>
-      <c r="I62" t="b">
-        <v>0</v>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="H62" t="b">
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Ar+Rahman+Dukuh/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb7778977fe1:0x998ff9d32426de95!8m2!3d-7.8093561!4d110.1651739!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11hdtbj9sf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2746,25 +2680,24 @@
           <t>0812-1569-5864</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr"/>
+      <c r="E63" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F63" t="n">
-        <v>4.6</v>
+        <v>-7.854312</v>
       </c>
       <c r="G63" t="n">
-        <v>-7.854312</v>
-      </c>
-      <c r="H63" t="n">
         <v>110.174127</v>
       </c>
-      <c r="I63" t="b">
-        <v>0</v>
+      <c r="H63" t="b">
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+Iman/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1b1c8aabd3:0xf6174a49d20b1d9d!8m2!3d-7.8543121!4d110.1741268!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNhMXBtYW5WQlJSQULgAQD6AQQIABBD!16s%2Fg%2F11cn0tqgsf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J63" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+Iman/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb1b1c8aabd3:0xf6174a49d20b1d9d!8m2!3d-7.8543121!4d110.1741268!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNhMXBtYW5WQlJSQULgAQD6AQQIABBD!16s%2Fg%2F11cn0tqgsf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
         <is>
           <t>2 minggu lalu</t>
         </is>
@@ -2783,25 +2716,24 @@
       </c>
       <c r="C64" t="inlineStr"/>
       <c r="D64" t="inlineStr"/>
-      <c r="E64" t="inlineStr"/>
+      <c r="E64" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F64" t="n">
-        <v>4.3</v>
+        <v>-7.847744</v>
       </c>
       <c r="G64" t="n">
-        <v>-7.847744</v>
-      </c>
-      <c r="H64" t="n">
         <v>110.192456</v>
       </c>
-      <c r="I64" t="b">
-        <v>0</v>
+      <c r="H64" t="b">
+        <v>0</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Musholla+Nurul+Hidayah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbab6d45ce63:0x983375a38c013b0b!8m2!3d-7.8477439!4d110.1924561!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11c40s5tnb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J64" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Musholla+Nurul+Hidayah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbab6d45ce63:0x983375a38c013b0b!8m2!3d-7.8477439!4d110.1924561!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11c40s5tnb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -2824,25 +2756,24 @@
           <t>0823-3489-7622</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr"/>
+      <c r="E65" t="n">
+        <v>5</v>
+      </c>
       <c r="F65" t="n">
-        <v>5</v>
+        <v>-7.812857</v>
       </c>
       <c r="G65" t="n">
-        <v>-7.812857</v>
-      </c>
-      <c r="H65" t="n">
         <v>110.148759</v>
       </c>
-      <c r="I65" t="b">
-        <v>0</v>
+      <c r="H65" t="b">
+        <v>0</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Miftahul+Jannah,+Blubuk/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afaaedbced319:0xa520e3c7d191608e!8m2!3d-7.812857!4d110.1487592!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF5Y0hVeWNsWm5FQUXgAQD6AQQIABAZ!16s%2Fg%2F11f3m8vnly?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J65" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Miftahul+Jannah,+Blubuk/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afaaedbced319:0xa520e3c7d191608e!8m2!3d-7.812857!4d110.1487592!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVF5Y0hVeWNsWm5FQUXgAQD6AQQIABAZ!16s%2Fg%2F11f3m8vnly?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K65" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -2865,25 +2796,24 @@
         </is>
       </c>
       <c r="D66" t="inlineStr"/>
-      <c r="E66" t="inlineStr"/>
+      <c r="E66" t="n">
+        <v>5</v>
+      </c>
       <c r="F66" t="n">
-        <v>5</v>
+        <v>-7.835205</v>
       </c>
       <c r="G66" t="n">
-        <v>-7.835205</v>
-      </c>
-      <c r="H66" t="n">
         <v>110.170268</v>
       </c>
-      <c r="I66" t="b">
-        <v>0</v>
+      <c r="H66" t="b">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Majelis+Julasa+Urrohman/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbdeccc20073:0xd57eb2e7cd8ba039!8m2!3d-7.8352054!4d110.1702682!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEVcmVsaWdpb3VzX2Rlc3RpbmF0aW9u4AEA!16s%2Fg%2F11rcns29xl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J66" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Majelis+Julasa+Urrohman/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbdeccc20073:0xd57eb2e7cd8ba039!8m2!3d-7.8352054!4d110.1702682!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEVcmVsaWdpb3VzX2Rlc3RpbmF0aW9u4AEA!16s%2Fg%2F11rcns29xl?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K66" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -2902,25 +2832,24 @@
       </c>
       <c r="C67" t="inlineStr"/>
       <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr"/>
+      <c r="E67" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F67" t="n">
-        <v>4.6</v>
+        <v>-7.858412</v>
       </c>
       <c r="G67" t="n">
-        <v>-7.858412</v>
-      </c>
-      <c r="H67" t="n">
         <v>110.145614</v>
       </c>
-      <c r="I67" t="b">
-        <v>0</v>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="H67" t="b">
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al+Ma'muri/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb2df907cead:0x46abc11d9470f3d5!8m2!3d-7.8584115!4d110.1456136!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjFhR0ZtUWxSbkVBReABAPoBBAgAEC0!16s%2Fg%2F11c2j0wj0r?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -2935,25 +2864,24 @@
       </c>
       <c r="C68" t="inlineStr"/>
       <c r="D68" t="inlineStr"/>
-      <c r="E68" t="inlineStr"/>
+      <c r="E68" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F68" t="n">
-        <v>4.5</v>
+        <v>-7.830249</v>
       </c>
       <c r="G68" t="n">
-        <v>-7.830249</v>
-      </c>
-      <c r="H68" t="n">
         <v>110.200268</v>
       </c>
-      <c r="I68" t="b">
-        <v>0</v>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="H68" t="b">
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+NHH/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afa44a96dd377:0xa2c5ef1588dbb6d1!8m2!3d-7.8302492!4d110.2002676!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkxYMlJRU1VWQkVBReABAPoBBAgAEBc!16s%2Fg%2F11c6t8s77l?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -2973,22 +2901,21 @@
         </is>
       </c>
       <c r="E69" t="inlineStr"/>
-      <c r="F69" t="inlineStr"/>
+      <c r="F69" t="n">
+        <v>-7.857067</v>
+      </c>
       <c r="G69" t="n">
-        <v>-7.857067</v>
-      </c>
-      <c r="H69" t="n">
         <v>110.163844</v>
       </c>
-      <c r="I69" t="b">
-        <v>0</v>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="H69" t="b">
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Majelis+Pengawas+Daerah+Sekretariat+Kabupaten+Kulon+Progo/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb22a8ed09cf:0x2a5ea9e72cd469e9!8m2!3d-7.857067!4d110.163844!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11b6s2g4r1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -3003,25 +2930,24 @@
       </c>
       <c r="C70" t="inlineStr"/>
       <c r="D70" t="inlineStr"/>
-      <c r="E70" t="inlineStr"/>
+      <c r="E70" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F70" t="n">
-        <v>4.5</v>
+        <v>-7.864073</v>
       </c>
       <c r="G70" t="n">
-        <v>-7.864073</v>
-      </c>
-      <c r="H70" t="n">
         <v>110.137249</v>
       </c>
-      <c r="I70" t="b">
-        <v>0</v>
+      <c r="H70" t="b">
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Darul+Arqom/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae51ed65d0afd:0xb88db7101758dded!8m2!3d-7.8640726!4d110.1372492!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJtYTBwSVFVVjNFQUXgAQD6AQQIABAN!16s%2Fg%2F11sgsc6j2d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J70" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Darul+Arqom/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae51ed65d0afd:0xb88db7101758dded!8m2!3d-7.8640726!4d110.1372492!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVJtYTBwSVFVVjNFQUXgAQD6AQQIABAN!16s%2Fg%2F11sgsc6j2d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K70" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3040,25 +2966,24 @@
       </c>
       <c r="C71" t="inlineStr"/>
       <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
+      <c r="E71" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F71" t="n">
-        <v>4.5</v>
+        <v>-7.800539</v>
       </c>
       <c r="G71" t="n">
-        <v>-7.800539</v>
-      </c>
-      <c r="H71" t="n">
         <v>110.158222</v>
       </c>
-      <c r="I71" t="b">
-        <v>0</v>
+      <c r="H71" t="b">
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+NUR+IMAN/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7af00c1d64a92f:0x567414fba6eaca94!8m2!3d-7.8005394!4d110.1582216!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11c5_w_tbk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J71" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+NUR+IMAN/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7af00c1d64a92f:0x567414fba6eaca94!8m2!3d-7.8005394!4d110.1582216!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11c5_w_tbk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K71" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3077,25 +3002,24 @@
       </c>
       <c r="C72" t="inlineStr"/>
       <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
+      <c r="E72" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F72" t="n">
-        <v>4.8</v>
+        <v>-7.856534</v>
       </c>
       <c r="G72" t="n">
-        <v>-7.856534</v>
-      </c>
-      <c r="H72" t="n">
         <v>110.13742</v>
       </c>
-      <c r="I72" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="H72" t="b">
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al-Ikhlas+Kopat/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae4d2555f2a31:0xa111db2178639d6e!8m2!3d-7.856534!4d110.1374198!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTndkVFZFY2sxQkVBReABAPoBBAgAED0!16s%2Fg%2F11f4pv75k7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -3110,25 +3034,24 @@
       </c>
       <c r="C73" t="inlineStr"/>
       <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
+      <c r="E73" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F73" t="n">
-        <v>4.9</v>
+        <v>-7.852787</v>
       </c>
       <c r="G73" t="n">
-        <v>-7.852787</v>
-      </c>
-      <c r="H73" t="n">
         <v>110.154037</v>
       </c>
-      <c r="I73" t="b">
-        <v>0</v>
+      <c r="H73" t="b">
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+AT+TAKMIR/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb765f877dcd:0xf6c0a4ab66b7b008!8m2!3d-7.8527869!4d110.1540367!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnBhVXhMU2xsUkVBReABAPoBBAgAEDs!16s%2Fg%2F11srh_b0ns?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J73" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+AT+TAKMIR/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb765f877dcd:0xf6c0a4ab66b7b008!8m2!3d-7.8527869!4d110.1540367!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnBhVXhMU2xsUkVBReABAPoBBAgAEDs!16s%2Fg%2F11srh_b0ns?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K73" t="inlineStr">
         <is>
           <t>seminggu lalu</t>
         </is>
@@ -3147,25 +3070,24 @@
       </c>
       <c r="C74" t="inlineStr"/>
       <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
+      <c r="E74" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F74" t="n">
-        <v>4.7</v>
+        <v>-7.786353</v>
       </c>
       <c r="G74" t="n">
-        <v>-7.786353</v>
-      </c>
-      <c r="H74" t="n">
         <v>110.186277</v>
       </c>
-      <c r="I74" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" t="inlineStr">
+      <c r="H74" t="b">
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al+Huda/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7af0604565acdd:0xda093c026dd2523a!8m2!3d-7.7863526!4d110.1862772!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTXhkV1p1YUVSbkVBReABAPoBBAgAEBw!16s%2Fg%2F11gclsb0t8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -3180,25 +3102,24 @@
       </c>
       <c r="C75" t="inlineStr"/>
       <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
+      <c r="E75" t="n">
+        <v>5</v>
+      </c>
       <c r="F75" t="n">
-        <v>5</v>
+        <v>-7.830066</v>
       </c>
       <c r="G75" t="n">
-        <v>-7.830066</v>
-      </c>
-      <c r="H75" t="n">
         <v>110.174099</v>
       </c>
-      <c r="I75" t="b">
-        <v>0</v>
+      <c r="H75" t="b">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Ar+Rohim/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb9906e69569:0xde4615e16a2bc579!8m2!3d-7.8300658!4d110.174099!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI1TTE4M1dGVjNFQUXgAQD6AQQIABAT!16s%2Fg%2F11jg5vshdv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J75" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Ar+Rohim/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb9906e69569:0xde4615e16a2bc579!8m2!3d-7.8300658!4d110.174099!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI1TTE4M1dGVjNFQUXgAQD6AQQIABAT!16s%2Fg%2F11jg5vshdv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -3217,25 +3138,24 @@
       </c>
       <c r="C76" t="inlineStr"/>
       <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
+      <c r="E76" t="n">
+        <v>5</v>
+      </c>
       <c r="F76" t="n">
-        <v>5</v>
+        <v>-7.85673</v>
       </c>
       <c r="G76" t="n">
-        <v>-7.85673</v>
-      </c>
-      <c r="H76" t="n">
         <v>110.161801</v>
       </c>
-      <c r="I76" t="b">
-        <v>0</v>
+      <c r="H76" t="b">
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+An-Nur/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb04932f8d2b:0x6c1b1803a85b6e50!8m2!3d-7.8567301!4d110.1618014!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11j2dn4248?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J76" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+An-Nur/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb04932f8d2b:0x6c1b1803a85b6e50!8m2!3d-7.8567301!4d110.1618014!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11j2dn4248?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3254,25 +3174,24 @@
       </c>
       <c r="C77" t="inlineStr"/>
       <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
+      <c r="E77" t="n">
+        <v>5</v>
+      </c>
       <c r="F77" t="n">
-        <v>5</v>
+        <v>-7.829048</v>
       </c>
       <c r="G77" t="n">
-        <v>-7.829048</v>
-      </c>
-      <c r="H77" t="n">
         <v>110.15646</v>
       </c>
-      <c r="I77" t="b">
-        <v>0</v>
+      <c r="H77" t="b">
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Al-+Barokah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afba966ff891f:0x9815e9b88548944a!8m2!3d-7.8290478!4d110.1564598!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11k4w85yd0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J77" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Al-+Barokah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afba966ff891f:0x9815e9b88548944a!8m2!3d-7.8290478!4d110.1564598!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11k4w85yd0?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
         <is>
           <t>7 bulan lalu</t>
         </is>
@@ -3291,25 +3210,24 @@
       </c>
       <c r="C78" t="inlineStr"/>
       <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
+      <c r="E78" t="n">
+        <v>4.9</v>
+      </c>
       <c r="F78" t="n">
-        <v>4.9</v>
+        <v>-7.849521</v>
       </c>
       <c r="G78" t="n">
-        <v>-7.849521</v>
-      </c>
-      <c r="H78" t="n">
         <v>110.134566</v>
       </c>
-      <c r="I78" t="b">
-        <v>0</v>
+      <c r="H78" t="b">
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Jami'ah+Sendang+Lor/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae5e2cf684915:0xb147ebb5240a85f!8m2!3d-7.8495206!4d110.1345659!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTNNazlQYjJ4M1JSQULgAQD6AQQIABAm!16s%2Fg%2F11grprb_h1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J78" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Jami'ah+Sendang+Lor/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae5e2cf684915:0xb147ebb5240a85f!8m2!3d-7.8495206!4d110.1345659!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUTNNazlQYjJ4M1JSQULgAQD6AQQIABAm!16s%2Fg%2F11grprb_h1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3328,25 +3246,24 @@
       </c>
       <c r="C79" t="inlineStr"/>
       <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
+      <c r="E79" t="n">
+        <v>5</v>
+      </c>
       <c r="F79" t="n">
-        <v>5</v>
+        <v>-7.831936</v>
       </c>
       <c r="G79" t="n">
-        <v>-7.831936</v>
-      </c>
-      <c r="H79" t="n">
         <v>110.173282</v>
       </c>
-      <c r="I79" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" t="inlineStr">
+      <c r="H79" t="b">
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Mushola+Al+Barokah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afaee7cea402f:0xdce92a17ed47b060!8m2!3d-7.8319362!4d110.1732816!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQcGxhY2Vfb2Zfd29yc2hpcOABAA!16s%2Fg%2F11ddxds89d?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -3361,25 +3278,24 @@
       </c>
       <c r="C80" t="inlineStr"/>
       <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
+      <c r="E80" t="n">
+        <v>4.1</v>
+      </c>
       <c r="F80" t="n">
-        <v>4.1</v>
+        <v>-7.853413</v>
       </c>
       <c r="G80" t="n">
-        <v>-7.853413</v>
-      </c>
-      <c r="H80" t="n">
         <v>110.147591</v>
       </c>
-      <c r="I80" t="b">
-        <v>0</v>
+      <c r="H80" t="b">
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Ku+Baiturrahman+Beji+Wates/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb2eb5080e29:0x29d5fc5b8af69307!8m2!3d-7.8534127!4d110.1475914!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmxlVjh5UTJkM1JSQULgAQD6AQQIABAU!16s%2Fg%2F11b7fd693q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J80" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Ku+Baiturrahman+Beji+Wates/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb2eb5080e29:0x29d5fc5b8af69307!8m2!3d-7.8534127!4d110.1475914!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmxlVjh5UTJkM1JSQULgAQD6AQQIABAU!16s%2Fg%2F11b7fd693q?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
         <is>
           <t>9 bulan lalu</t>
         </is>
@@ -3398,25 +3314,24 @@
       </c>
       <c r="C81" t="inlineStr"/>
       <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
+      <c r="E81" t="n">
+        <v>5</v>
+      </c>
       <c r="F81" t="n">
-        <v>5</v>
+        <v>-7.830512</v>
       </c>
       <c r="G81" t="n">
-        <v>-7.830512</v>
-      </c>
-      <c r="H81" t="n">
         <v>110.171098</v>
       </c>
-      <c r="I81" t="b">
-        <v>0</v>
+      <c r="H81" t="b">
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Pendopo+Subur+Jati/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb002e21ffd7:0xb0e77e62f20859d!8m2!3d-7.8305116!4d110.1710976!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjJPV1F6VWw5blJSQULgAQD6AQQIABAN!16s%2Fg%2F11vplln0vy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J81" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Pendopo+Subur+Jati/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb002e21ffd7:0xb0e77e62f20859d!8m2!3d-7.8305116!4d110.1710976!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARVyZWxpZ2lvdXNfZGVzdGluYXRpb26aASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTjJPV1F6VWw5blJSQULgAQD6AQQIABAN!16s%2Fg%2F11vplln0vy?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
         <is>
           <t>sebulan lalu</t>
         </is>
@@ -3435,25 +3350,24 @@
       </c>
       <c r="C82" t="inlineStr"/>
       <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
+      <c r="E82" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F82" t="n">
-        <v>4.5</v>
+        <v>-7.839066</v>
       </c>
       <c r="G82" t="n">
-        <v>-7.839066</v>
-      </c>
-      <c r="H82" t="n">
         <v>110.15844</v>
       </c>
-      <c r="I82" t="b">
-        <v>0</v>
+      <c r="H82" t="b">
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Baitussalam+Klegen/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb6f5a3a9135:0x2c591fc7db350054!8m2!3d-7.8390661!4d110.15844!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11ft87lnpn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J82" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Baitussalam+Klegen/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb6f5a3a9135:0x2c591fc7db350054!8m2!3d-7.8390661!4d110.15844!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11ft87lnpn?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3476,25 +3390,24 @@
           <t>0852-2805-8149</t>
         </is>
       </c>
-      <c r="E83" t="inlineStr"/>
+      <c r="E83" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F83" t="n">
-        <v>4.3</v>
+        <v>-7.863696</v>
       </c>
       <c r="G83" t="n">
-        <v>-7.863696</v>
-      </c>
-      <c r="H83" t="n">
         <v>110.159054</v>
       </c>
-      <c r="I83" t="b">
-        <v>0</v>
-      </c>
-      <c r="J83" t="inlineStr">
+      <c r="H83" t="b">
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+ASY.SYAFI'IYAH/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb69b368c105:0xadb9d726a371568d!8m2!3d-7.8636957!4d110.1590544!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUTFkMXBoUjFCbkVBReABAPoBBAgAEBc!16s%2Fg%2F11h03g6jdw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -3509,25 +3422,24 @@
       </c>
       <c r="C84" t="inlineStr"/>
       <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
+      <c r="E84" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F84" t="n">
-        <v>4.5</v>
+        <v>-7.820328</v>
       </c>
       <c r="G84" t="n">
-        <v>-7.820328</v>
-      </c>
-      <c r="H84" t="n">
         <v>110.15696</v>
       </c>
-      <c r="I84" t="b">
-        <v>0</v>
+      <c r="H84" t="b">
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Mutaqin/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afabb968cd883:0x5bae78a08c32dbc1!8m2!3d-7.8203276!4d110.1569596!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpWjJOaE1WOTNSUkFC4AEA-gEECCEQMQ!16s%2Fg%2F11byl3dcwf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J84" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Mutaqin/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afabb968cd883:0x5bae78a08c32dbc1!8m2!3d-7.8203276!4d110.1569596!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEkQ2hkRFNVaE5NRzluUzBWSlEwRm5TVVJpWjJOaE1WOTNSUkFC4AEA-gEECCEQMQ!16s%2Fg%2F11byl3dcwf?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3550,21 +3462,20 @@
           <t>0878-4566-0222</t>
         </is>
       </c>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="n">
+      <c r="E85" t="n">
         <v>4.4</v>
       </c>
+      <c r="F85" t="inlineStr"/>
       <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="b">
-        <v>0</v>
+      <c r="H85" t="b">
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+AL+IKHLASH+Blumbang+Karangsari+Pengasih/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afab605056b95:0x10d6d4662d78cef2!8m2!3d-7.8270157!4d110.1468135!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11c59tn1jr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J85" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+AL+IKHLASH+Blumbang+Karangsari+Pengasih/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afab605056b95:0x10d6d4662d78cef2!8m2!3d-7.8270157!4d110.1468135!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11c59tn1jr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
         <is>
           <t>6 bulan lalu</t>
         </is>
@@ -3583,25 +3494,24 @@
       </c>
       <c r="C86" t="inlineStr"/>
       <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
+      <c r="E86" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F86" t="n">
-        <v>4.5</v>
+        <v>-7.833697</v>
       </c>
       <c r="G86" t="n">
-        <v>-7.833697</v>
-      </c>
-      <c r="H86" t="n">
         <v>110.149068</v>
       </c>
-      <c r="I86" t="b">
-        <v>0</v>
+      <c r="H86" t="b">
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Ihsan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afacedf09afc1:0x982e0b500c6eb235!8m2!3d-7.8336975!4d110.1490683!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNkV1ZJUzNoUlJSQULgAQD6AQQIABA9!16s%2Fg%2F11clmjldnk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J86" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Ihsan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afacedf09afc1:0x982e0b500c6eb235!8m2!3d-7.8336975!4d110.1490683!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVUlNkV1ZJUzNoUlJSQULgAQD6AQQIABA9!16s%2Fg%2F11clmjldnk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -3620,25 +3530,24 @@
       </c>
       <c r="C87" t="inlineStr"/>
       <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
+      <c r="E87" t="n">
+        <v>5</v>
+      </c>
       <c r="F87" t="n">
-        <v>5</v>
+        <v>-7.818104</v>
       </c>
       <c r="G87" t="n">
-        <v>-7.818104</v>
-      </c>
-      <c r="H87" t="n">
         <v>110.206757</v>
       </c>
-      <c r="I87" t="b">
-        <v>0</v>
+      <c r="H87" t="b">
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Makam+Sayom+Banaran+Kidul/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbe6439b19f9:0x4b0ff04bc563fa4f!8m2!3d-7.818104!4d110.2067566!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZzaHJpbmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBiRGszWTJsM1JSQULgAQD6AQQIABAf!16s%2Fg%2F11pc2m02z1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J87" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Makam+Sayom+Banaran+Kidul/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbe6439b19f9:0x4b0ff04bc563fa4f!8m2!3d-7.818104!4d110.2067566!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZzaHJpbmWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTlBiRGszWTJsM1JSQULgAQD6AQQIABAf!16s%2Fg%2F11pc2m02z1?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3657,25 +3566,24 @@
       </c>
       <c r="C88" t="inlineStr"/>
       <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
+      <c r="E88" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F88" t="n">
-        <v>4.8</v>
+        <v>-7.830544</v>
       </c>
       <c r="G88" t="n">
-        <v>-7.830544</v>
-      </c>
-      <c r="H88" t="n">
         <v>110.171102</v>
       </c>
-      <c r="I88" t="b">
-        <v>0</v>
-      </c>
-      <c r="J88" t="inlineStr">
+      <c r="H88" t="b">
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Joglo+Paingan+Ar-Rohim/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb003a1e5125:0x3451d048f6257ea5!8m2!3d-7.8305441!4d110.1711016!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEVcmVsaWdpb3VzX2Rlc3RpbmF0aW9u4AEA!16s%2Fg%2F11vrrp_hnz?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr"/>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -3694,25 +3602,24 @@
           <t>0858-7878-5844</t>
         </is>
       </c>
-      <c r="E89" t="inlineStr"/>
+      <c r="E89" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F89" t="n">
-        <v>4.5</v>
+        <v>-7.849685</v>
       </c>
       <c r="G89" t="n">
-        <v>-7.849685</v>
-      </c>
-      <c r="H89" t="n">
         <v>110.148863</v>
       </c>
-      <c r="I89" t="b">
-        <v>0</v>
+      <c r="H89" t="b">
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+An+Nur+Punukan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb29b3fa1e39:0x7a4142cbcd7a06cd!8m2!3d-7.8496851!4d110.1488631!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnFYMDVxT0VsUkVBReABAPoBBAgAEA8!16s%2Fg%2F11b75k0yz8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J89" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+An+Nur+Punukan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb29b3fa1e39:0x7a4142cbcd7a06cd!8m2!3d-7.8496851!4d110.1488631!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnFYMDVxT0VsUkVBReABAPoBBAgAEA8!16s%2Fg%2F11b75k0yz8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -3731,25 +3638,24 @@
       </c>
       <c r="C90" t="inlineStr"/>
       <c r="D90" t="inlineStr"/>
-      <c r="E90" t="inlineStr"/>
+      <c r="E90" t="n">
+        <v>4.6</v>
+      </c>
       <c r="F90" t="n">
-        <v>4.6</v>
+        <v>-7.828962</v>
       </c>
       <c r="G90" t="n">
-        <v>-7.828962</v>
-      </c>
-      <c r="H90" t="n">
         <v>110.224891</v>
       </c>
-      <c r="I90" t="b">
-        <v>0</v>
+      <c r="H90" t="b">
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Hidayah+Dlaban/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afa24a0f072f1:0xf20c8042b93e09d4!8m2!3d-7.8289625!4d110.2248906!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkVhMk5xYjFsM0VBReABAPoBBAgAEDY!16s%2Fg%2F11dxkzjwj8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J90" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Hidayah+Dlaban/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afa24a0f072f1:0xf20c8042b93e09d4!8m2!3d-7.8289625!4d110.2248906!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTkVhMk5xYjFsM0VBReABAPoBBAgAEDY!16s%2Fg%2F11dxkzjwj8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
         <is>
           <t>5 bulan lalu</t>
         </is>
@@ -3769,22 +3675,21 @@
       <c r="C91" t="inlineStr"/>
       <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr"/>
-      <c r="F91" t="inlineStr"/>
+      <c r="F91" t="n">
+        <v>-7.862451</v>
+      </c>
       <c r="G91" t="n">
-        <v>-7.862451</v>
-      </c>
-      <c r="H91" t="n">
         <v>110.162128</v>
       </c>
-      <c r="I91" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" t="inlineStr">
+      <c r="H91" t="b">
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Makam+Pageran+Lasem+di+Kulon+Progo+yogyakarta/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb5aa4fd017d:0x2e4f41cb92a70152!8m2!3d-7.8624508!4d110.1621277!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGc2hyaW5l4AEA!16s%2Fg%2F11q1w6mtdw?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -3799,25 +3704,24 @@
       </c>
       <c r="C92" t="inlineStr"/>
       <c r="D92" t="inlineStr"/>
-      <c r="E92" t="inlineStr"/>
+      <c r="E92" t="n">
+        <v>5</v>
+      </c>
       <c r="F92" t="n">
-        <v>5</v>
+        <v>-7.805688</v>
       </c>
       <c r="G92" t="n">
-        <v>-7.805688</v>
-      </c>
-      <c r="H92" t="n">
         <v>110.16192</v>
       </c>
-      <c r="I92" t="b">
-        <v>0</v>
+      <c r="H92" t="b">
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Makam/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7af173fddb98bf:0xe4bfb5589894d235!8m2!3d-7.8056883!4d110.1619199!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZzaHJpbmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnNjazFmWWtkbkVBReABAPoBBAgAEBI!16s%2Fg%2F11l6zb3_n8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J92" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Makam/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7af173fddb98bf:0xe4bfb5589894d235!8m2!3d-7.8056883!4d110.1619199!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZzaHJpbmWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUnNjazFmWWtkbkVBReABAPoBBAgAEBI!16s%2Fg%2F11l6zb3_n8?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K92" t="inlineStr">
         <is>
           <t>11 bulan lalu</t>
         </is>
@@ -3836,25 +3740,24 @@
       </c>
       <c r="C93" t="inlineStr"/>
       <c r="D93" t="inlineStr"/>
-      <c r="E93" t="inlineStr"/>
+      <c r="E93" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F93" t="n">
-        <v>4.7</v>
+        <v>-7.852061</v>
       </c>
       <c r="G93" t="n">
-        <v>-7.852061</v>
-      </c>
-      <c r="H93" t="n">
         <v>110.15959</v>
       </c>
-      <c r="I93" t="b">
-        <v>0</v>
-      </c>
-      <c r="J93" t="inlineStr">
+      <c r="H93" t="b">
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Terbahsari/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb215d5126a5:0x4801cf5ef9bf573d!8m2!3d-7.8520612!4d110.1595899!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11fzc1c0zb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -3869,25 +3772,24 @@
       </c>
       <c r="C94" t="inlineStr"/>
       <c r="D94" t="inlineStr"/>
-      <c r="E94" t="inlineStr"/>
+      <c r="E94" t="n">
+        <v>5</v>
+      </c>
       <c r="F94" t="n">
-        <v>5</v>
+        <v>-7.833306</v>
       </c>
       <c r="G94" t="n">
-        <v>-7.833306</v>
-      </c>
-      <c r="H94" t="n">
         <v>110.167559</v>
       </c>
-      <c r="I94" t="b">
-        <v>0</v>
+      <c r="H94" t="b">
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Z's+griya/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb0053edfa83:0xd281101da796e9be!8m2!3d-7.8333058!4d110.1675594!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11wn6r4bcg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J94" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Z's+griya/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb0053edfa83:0xd281101da796e9be!8m2!3d-7.8333058!4d110.1675594!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11wn6r4bcg?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K94" t="inlineStr">
         <is>
           <t>3 minggu lalu</t>
         </is>
@@ -3906,25 +3808,24 @@
       </c>
       <c r="C95" t="inlineStr"/>
       <c r="D95" t="inlineStr"/>
-      <c r="E95" t="inlineStr"/>
+      <c r="E95" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F95" t="n">
-        <v>4.8</v>
+        <v>-7.840876</v>
       </c>
       <c r="G95" t="n">
-        <v>-7.840876</v>
-      </c>
-      <c r="H95" t="n">
         <v>110.163837</v>
       </c>
-      <c r="I95" t="b">
-        <v>0</v>
-      </c>
-      <c r="J95" t="inlineStr">
+      <c r="H95" t="b">
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al-Iman/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afadd8c3aa5bd:0xb7c1a3f32ceb7b71!8m2!3d-7.8408765!4d110.1638371!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVVI1TW1SdGVVTkJFQUXgAQD6AQQIABAc!16s%2Fg%2F11gf8fzrnv?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -3939,25 +3840,24 @@
       </c>
       <c r="C96" t="inlineStr"/>
       <c r="D96" t="inlineStr"/>
-      <c r="E96" t="inlineStr"/>
+      <c r="E96" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F96" t="n">
-        <v>4.5</v>
+        <v>-7.832675</v>
       </c>
       <c r="G96" t="n">
-        <v>-7.832675</v>
-      </c>
-      <c r="H96" t="n">
         <v>110.156926</v>
       </c>
-      <c r="I96" t="b">
-        <v>0</v>
+      <c r="H96" t="b">
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Rois+Mrunggi/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbc3afebf8eb:0xe5691ad81216785e!8m2!3d-7.8326755!4d110.1569261!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQc3Bpcml0aXN0X2NlbnRlcuABAA!16s%2Fg%2F11rhsk4m95?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J96" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Rois+Mrunggi/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbc3afebf8eb:0xe5691ad81216785e!8m2!3d-7.8326755!4d110.1569261!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQc3Bpcml0aXN0X2NlbnRlcuABAA!16s%2Fg%2F11rhsk4m95?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K96" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -3976,25 +3876,24 @@
       </c>
       <c r="C97" t="inlineStr"/>
       <c r="D97" t="inlineStr"/>
-      <c r="E97" t="inlineStr"/>
+      <c r="E97" t="n">
+        <v>5</v>
+      </c>
       <c r="F97" t="n">
-        <v>5</v>
+        <v>-7.859598</v>
       </c>
       <c r="G97" t="n">
-        <v>-7.859598</v>
-      </c>
-      <c r="H97" t="n">
         <v>110.15771</v>
       </c>
-      <c r="I97" t="b">
-        <v>0</v>
+      <c r="H97" t="b">
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Stasiun+Wates/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb0074892bc3:0xc3de97be4a6e0883!8m2!3d-7.8595982!4d110.15771!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5RY21OdU5tUlJFQUXgAQD6AQQIABAy!16s%2Fg%2F11w3ypb_12?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J97" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Stasiun+Wates/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb0074892bc3:0xc3de97be4a6e0883!8m2!3d-7.8595982!4d110.15771!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SARBwbGFjZV9vZl93b3JzaGlwmgEjQ2haRFNVaE5NRzluUzBWSlEwRm5TVU5RY21OdU5tUlJFQUXgAQD6AQQIABAy!16s%2Fg%2F11w3ypb_12?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K97" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4021,25 +3920,24 @@
           <t>0813-9107-6461</t>
         </is>
       </c>
-      <c r="E98" t="inlineStr"/>
+      <c r="E98" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F98" t="n">
-        <v>4.8</v>
+        <v>-7.809895</v>
       </c>
       <c r="G98" t="n">
-        <v>-7.809895</v>
-      </c>
-      <c r="H98" t="n">
         <v>110.170595</v>
       </c>
-      <c r="I98" t="b">
-        <v>0</v>
-      </c>
-      <c r="J98" t="inlineStr">
+      <c r="H98" t="b">
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Pesantren+Modern+Putri+ROJI+SYAFAAT/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afba3d54733a7:0xa0ed04f1e4d18a37!8m2!3d-7.8098955!4d110.1705953!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTnhiblZVWWpsM1JSQULgAQD6AQQIABAm!16s%2Fg%2F11rfwgvc4k?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -4054,25 +3952,24 @@
       </c>
       <c r="C99" t="inlineStr"/>
       <c r="D99" t="inlineStr"/>
-      <c r="E99" t="inlineStr"/>
+      <c r="E99" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F99" t="n">
-        <v>4.7</v>
+        <v>-7.809118</v>
       </c>
       <c r="G99" t="n">
-        <v>-7.809118</v>
-      </c>
-      <c r="H99" t="n">
         <v>110.184313</v>
       </c>
-      <c r="I99" t="b">
-        <v>0</v>
-      </c>
-      <c r="J99" t="inlineStr">
+      <c r="H99" t="b">
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al-Munawar/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afa81231b9803:0xa5dfc1c9f2d8ba6c!8m2!3d-7.8091179!4d110.1843128!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTmxOalJmVkRKQlJSQULgAQD6AQQIABBE!16s%2Fg%2F11fz94s4qs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -4087,25 +3984,24 @@
       </c>
       <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr"/>
-      <c r="E100" t="inlineStr"/>
+      <c r="E100" t="n">
+        <v>5</v>
+      </c>
       <c r="F100" t="n">
-        <v>5</v>
+        <v>-7.849474</v>
       </c>
       <c r="G100" t="n">
-        <v>-7.849474</v>
-      </c>
-      <c r="H100" t="n">
         <v>110.170268</v>
       </c>
-      <c r="I100" t="b">
-        <v>0</v>
+      <c r="H100" t="b">
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Padepokan+Sukma+Suci+Lebur+Jiwa/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb03d8c0aba3:0x4835ebda5b95b254!8m2!3d-7.849474!4d110.1702681!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQc3Bpcml0aXN0X2NlbnRlcuABAA!16s%2Fg%2F11p083rz4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J100" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Padepokan+Sukma+Suci+Lebur+Jiwa/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb03d8c0aba3:0x4835ebda5b95b254!8m2!3d-7.849474!4d110.1702681!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQc3Bpcml0aXN0X2NlbnRlcuABAA!16s%2Fg%2F11p083rz4j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K100" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4124,25 +4020,24 @@
       </c>
       <c r="C101" t="inlineStr"/>
       <c r="D101" t="inlineStr"/>
-      <c r="E101" t="inlineStr"/>
+      <c r="E101" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F101" t="n">
-        <v>4.7</v>
+        <v>-7.846584</v>
       </c>
       <c r="G101" t="n">
-        <v>-7.846584</v>
-      </c>
-      <c r="H101" t="n">
         <v>110.180844</v>
       </c>
-      <c r="I101" t="b">
-        <v>0</v>
+      <c r="H101" t="b">
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurul+Huda/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afafdf582cf1f:0x47f8142acd9ff56e!8m2!3d-7.8465843!4d110.1808437!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11gbwy6g0j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J101" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurul+Huda/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afafdf582cf1f:0x47f8142acd9ff56e!8m2!3d-7.8465843!4d110.1808437!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11gbwy6g0j?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K101" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4169,25 +4064,24 @@
           <t>0852-2858-6941</t>
         </is>
       </c>
-      <c r="E102" t="inlineStr"/>
+      <c r="E102" t="n">
+        <v>2</v>
+      </c>
       <c r="F102" t="n">
-        <v>2</v>
+        <v>-7.831059</v>
       </c>
       <c r="G102" t="n">
-        <v>-7.831059</v>
-      </c>
-      <c r="H102" t="n">
         <v>110.17184</v>
       </c>
-      <c r="I102" t="b">
-        <v>0</v>
+      <c r="H102" t="b">
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Suara+Hidayah+%26+Kajian+Al+Qur'an/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbe010b1091b:0xc70dcaca7a8388e3!8m2!3d-7.8310589!4d110.17184!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11h3y22mxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J102" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Suara+Hidayah+%26+Kajian+Al+Qur'an/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbe010b1091b:0xc70dcaca7a8388e3!8m2!3d-7.8310589!4d110.17184!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11h3y22mxb?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4210,25 +4104,24 @@
           <t>0821-3826-5728</t>
         </is>
       </c>
-      <c r="E103" t="inlineStr"/>
+      <c r="E103" t="n">
+        <v>5</v>
+      </c>
       <c r="F103" t="n">
-        <v>5</v>
+        <v>-7.832481</v>
       </c>
       <c r="G103" t="n">
-        <v>-7.832481</v>
-      </c>
-      <c r="H103" t="n">
         <v>110.159994</v>
       </c>
-      <c r="I103" t="b">
-        <v>0</v>
+      <c r="H103" t="b">
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+Sabilul+Jannah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb543667582b:0x80d1f6d792e3ff8d!8m2!3d-7.832481!4d110.1599938!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11nx2v9s_p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J103" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+Sabilul+Jannah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb543667582b:0x80d1f6d792e3ff8d!8m2!3d-7.832481!4d110.1599938!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11nx2v9s_p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4247,25 +4140,24 @@
       </c>
       <c r="C104" t="inlineStr"/>
       <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr"/>
+      <c r="E104" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F104" t="n">
-        <v>4.5</v>
+        <v>-7.836364</v>
       </c>
       <c r="G104" t="n">
-        <v>-7.836364</v>
-      </c>
-      <c r="H104" t="n">
         <v>110.174763</v>
       </c>
-      <c r="I104" t="b">
-        <v>0</v>
+      <c r="H104" t="b">
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al-Fatah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afaefefac20ab:0x3891329e50144dff!8m2!3d-7.836364!4d110.1747629!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmFlSFJoV1dSQkVBReABAPoBBQieARBF!16s%2Fg%2F1pzvqxc_p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J104" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al-Fatah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afaefefac20ab:0x3891329e50144dff!8m2!3d-7.836364!4d110.1747629!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTmFlSFJoV1dSQkVBReABAPoBBQieARBF!16s%2Fg%2F1pzvqxc_p?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K104" t="inlineStr">
         <is>
           <t>3 bulan lalu</t>
         </is>
@@ -4284,25 +4176,24 @@
       </c>
       <c r="C105" t="inlineStr"/>
       <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr"/>
+      <c r="E105" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F105" t="n">
-        <v>4.5</v>
+        <v>-7.831636</v>
       </c>
       <c r="G105" t="n">
-        <v>-7.831636</v>
-      </c>
-      <c r="H105" t="n">
         <v>110.152247</v>
       </c>
-      <c r="I105" t="b">
-        <v>0</v>
+      <c r="H105" t="b">
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MASJID+ALMUTTAQIN+MRUNGGI+SENDANGSARI/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afac66b5edc6d:0xd5abb49e115b7d59!8m2!3d-7.8316362!4d110.152247!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11f_c07xgr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J105" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MASJID+ALMUTTAQIN+MRUNGGI+SENDANGSARI/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afac66b5edc6d:0xd5abb49e115b7d59!8m2!3d-7.8316362!4d110.152247!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11f_c07xgr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K105" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4325,25 +4216,24 @@
           <t>0813-1910-7018</t>
         </is>
       </c>
-      <c r="E106" t="inlineStr"/>
+      <c r="E106" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F106" t="n">
-        <v>4.8</v>
+        <v>-7.824416</v>
       </c>
       <c r="G106" t="n">
-        <v>-7.824416</v>
-      </c>
-      <c r="H106" t="n">
         <v>110.159617</v>
       </c>
-      <c r="I106" t="b">
-        <v>0</v>
-      </c>
-      <c r="J106" t="inlineStr">
+      <c r="H106" t="b">
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Nur+Amin/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afab9aaaaaa9f:0x4a8a86343654c29d!8m2!3d-7.824416!4d110.159617!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASRDaGREU1VoTk1HOW5TMFZKUTBGblNVTkhNRmxwZEdwblJSQULgAQD6AQQIABAb!16s%2Fg%2F11bzync2g4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -4358,25 +4248,24 @@
       </c>
       <c r="C107" t="inlineStr"/>
       <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr"/>
+      <c r="E107" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F107" t="n">
-        <v>4.8</v>
+        <v>-7.841378</v>
       </c>
       <c r="G107" t="n">
-        <v>-7.841378</v>
-      </c>
-      <c r="H107" t="n">
         <v>110.177449</v>
       </c>
-      <c r="I107" t="b">
-        <v>0</v>
+      <c r="H107" t="b">
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Muttaqin+Klampis/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afafb5fdb7d0d:0x5833f070f878aa64!8m2!3d-7.841378!4d110.1774494!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm1iQzFVYkZGM0VBReABAPoBBQiJAhBE!16s%2Fg%2F11c0rr2_9_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J107" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Muttaqin+Klampis/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afafb5fdb7d0d:0x5833f070f878aa64!8m2!3d-7.841378!4d110.1774494!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTm1iQzFVYkZGM0VBReABAPoBBQiJAhBE!16s%2Fg%2F11c0rr2_9_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
         <is>
           <t>4 minggu lalu</t>
         </is>
@@ -4395,25 +4284,24 @@
       </c>
       <c r="C108" t="inlineStr"/>
       <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr"/>
+      <c r="E108" t="n">
+        <v>5</v>
+      </c>
       <c r="F108" t="n">
-        <v>5</v>
+        <v>-7.842397</v>
       </c>
       <c r="G108" t="n">
-        <v>-7.842397</v>
-      </c>
-      <c r="H108" t="n">
         <v>110.170621</v>
       </c>
-      <c r="I108" t="b">
-        <v>0</v>
+      <c r="H108" t="b">
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Mushola+As-Sajdah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbd987d21b21:0x625a4759c2f1bbe2!8m2!3d-7.8423972!4d110.1706214!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjVNamcyUVdWM0VBReABAPoBBAgAECE!16s%2Fg%2F11pb173w7c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J108" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Mushola+As-Sajdah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbd987d21b21:0x625a4759c2f1bbe2!8m2!3d-7.8423972!4d110.1706214!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjVNamcyUVdWM0VBReABAPoBBAgAECE!16s%2Fg%2F11pb173w7c?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K108" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4432,25 +4320,24 @@
       </c>
       <c r="C109" t="inlineStr"/>
       <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr"/>
+      <c r="E109" t="n">
+        <v>4.3</v>
+      </c>
       <c r="F109" t="n">
-        <v>4.3</v>
+        <v>-7.851565</v>
       </c>
       <c r="G109" t="n">
-        <v>-7.851565</v>
-      </c>
-      <c r="H109" t="n">
         <v>110.190959</v>
       </c>
-      <c r="I109" t="b">
-        <v>0</v>
-      </c>
-      <c r="J109" t="inlineStr">
+      <c r="H109" t="b">
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr">
         <is>
           <t>https://www.google.com/maps/place/Masjid+Al-Istiqomah/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afba978a11ac9:0x18491d6a7dc1f9f!8m2!3d-7.851565!4d110.190959!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11cn9kysmk?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr"/>
+      <c r="J109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -4465,25 +4352,24 @@
       </c>
       <c r="C110" t="inlineStr"/>
       <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr"/>
+      <c r="E110" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F110" t="n">
-        <v>4.8</v>
+        <v>-7.84577</v>
       </c>
       <c r="G110" t="n">
-        <v>-7.84577</v>
-      </c>
-      <c r="H110" t="n">
         <v>110.138777</v>
       </c>
-      <c r="I110" t="b">
-        <v>0</v>
+      <c r="H110" t="b">
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Ma'ruf+Ngruno+Karangsari+Pengasih/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae52b659f0e47:0xb14558233710bc02!8m2!3d-7.84577!4d110.1387773!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjFjblJMYUZSbkVBReABAPoBBAgAEDw!16s%2Fg%2F1pzvvffk4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J110" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Ma'ruf+Ngruno+Karangsari+Pengasih/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae52b659f0e47:0xb14558233710bc02!8m2!3d-7.84577!4d110.1387773!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjFjblJMYUZSbkVBReABAPoBBAgAEDw!16s%2Fg%2F1pzvvffk4?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -4502,25 +4388,24 @@
       </c>
       <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr"/>
+      <c r="E111" t="n">
+        <v>5</v>
+      </c>
       <c r="F111" t="n">
-        <v>5</v>
+        <v>-7.841089</v>
       </c>
       <c r="G111" t="n">
-        <v>-7.841089</v>
-      </c>
-      <c r="H111" t="n">
         <v>110.162282</v>
       </c>
-      <c r="I111" t="b">
-        <v>0</v>
+      <c r="H111" t="b">
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Daarul+Hasanah+Wal+Maghfiroh/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbcd6c7d851b:0xaf642d91dc2b4838!8m2!3d-7.8410891!4d110.1622822!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11ssdvdy8_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J111" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Daarul+Hasanah+Wal+Maghfiroh/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbcd6c7d851b:0xaf642d91dc2b4838!8m2!3d-7.8410891!4d110.1622822!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11ssdvdy8_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4539,25 +4424,24 @@
       </c>
       <c r="C112" t="inlineStr"/>
       <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr"/>
+      <c r="E112" t="n">
+        <v>4</v>
+      </c>
       <c r="F112" t="n">
-        <v>4</v>
+        <v>-7.847889</v>
       </c>
       <c r="G112" t="n">
-        <v>-7.847889</v>
-      </c>
-      <c r="H112" t="n">
         <v>110.159971</v>
       </c>
-      <c r="I112" t="b">
-        <v>0</v>
+      <c r="H112" t="b">
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Sabilul+Hidayah+Ngento/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb20a1fc9701:0x189b9d12ffb3a088!8m2!3d-7.8478889!4d110.1599711!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11c317_535?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J112" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Sabilul+Hidayah+Ngento/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb20a1fc9701:0x189b9d12ffb3a088!8m2!3d-7.8478889!4d110.1599711!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11c317_535?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
         <is>
           <t>4 tahun lalu</t>
         </is>
@@ -4576,25 +4460,24 @@
       </c>
       <c r="C113" t="inlineStr"/>
       <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr"/>
+      <c r="E113" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F113" t="n">
-        <v>4.4</v>
+        <v>-7.811666</v>
       </c>
       <c r="G113" t="n">
-        <v>-7.811666</v>
-      </c>
-      <c r="H113" t="n">
         <v>110.189181</v>
       </c>
-      <c r="I113" t="b">
-        <v>0</v>
+      <c r="H113" t="b">
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Sholahuddin/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb62293a7799:0x1af3c1c73c27a19e!8m2!3d-7.8116663!4d110.1891807!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmhkRGRVZGtkUkVBReABAPoBBAgAEBY!16s%2Fg%2F11g0gpq296?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J113" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Sholahuddin/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb62293a7799:0x1af3c1c73c27a19e!8m2!3d-7.8116663!4d110.1891807!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUmhkRGRVZGtkUkVBReABAPoBBAgAEBY!16s%2Fg%2F11g0gpq296?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
@@ -4613,25 +4496,24 @@
       </c>
       <c r="C114" t="inlineStr"/>
       <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr"/>
+      <c r="E114" t="n">
+        <v>3</v>
+      </c>
       <c r="F114" t="n">
-        <v>3</v>
+        <v>-7.817186</v>
       </c>
       <c r="G114" t="n">
-        <v>-7.817186</v>
-      </c>
-      <c r="H114" t="n">
         <v>110.152668</v>
       </c>
-      <c r="I114" t="b">
-        <v>0</v>
+      <c r="H114" t="b">
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Dalem+Selo+Pernatan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb00485fa91b:0x9e8127dff9b0b886!8m2!3d-7.8171865!4d110.1526678!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQc3Bpcml0aXN0X2NlbnRlcuABAA!16s%2Fg%2F11v_5y5pf7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J114" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Dalem+Selo+Pernatan/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb00485fa91b:0x9e8127dff9b0b886!8m2!3d-7.8171865!4d110.1526678!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEQc3Bpcml0aXN0X2NlbnRlcuABAA!16s%2Fg%2F11v_5y5pf7?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
         <is>
           <t>8 bulan lalu</t>
         </is>
@@ -4650,25 +4532,24 @@
       </c>
       <c r="C115" t="inlineStr"/>
       <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr"/>
+      <c r="E115" t="n">
+        <v>4.7</v>
+      </c>
       <c r="F115" t="n">
-        <v>4.7</v>
+        <v>-7.839071</v>
       </c>
       <c r="G115" t="n">
-        <v>-7.839071</v>
-      </c>
-      <c r="H115" t="n">
         <v>110.118199</v>
       </c>
-      <c r="I115" t="b">
-        <v>0</v>
+      <c r="H115" t="b">
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Ma'ruf/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae52333594ae1:0x6125640751ec5bab!8m2!3d-7.8390715!4d110.1181988!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASBDaFJEU1VoTk1HOW5TMFZKUTBGblNVTnhOMGt4VGhBQuABAPoBBAgAEBo!16s%2Fg%2F11f373xf0_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J115" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Ma'ruf/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7ae52333594ae1:0x6125640751ec5bab!8m2!3d-7.8390715!4d110.1181988!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASBDaFJEU1VoTk1HOW5TMFZKUTBGblNVTnhOMGt4VGhBQuABAPoBBAgAEBo!16s%2Fg%2F11f373xf0_?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K115" t="inlineStr">
         <is>
           <t>3 tahun lalu</t>
         </is>
@@ -4687,25 +4568,24 @@
       </c>
       <c r="C116" t="inlineStr"/>
       <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr"/>
+      <c r="E116" t="n">
+        <v>4.4</v>
+      </c>
       <c r="F116" t="n">
-        <v>4.4</v>
+        <v>-7.805449</v>
       </c>
       <c r="G116" t="n">
-        <v>-7.805449</v>
-      </c>
-      <c r="H116" t="n">
         <v>110.150688</v>
       </c>
-      <c r="I116" t="b">
-        <v>0</v>
+      <c r="H116" t="b">
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/MASJID+AR+ROHMAN/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb25c1a2b7cd:0x2cdd6f0793c300ae!8m2!3d-7.8054491!4d110.1506883!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTJhMGxJU2xSUkVBReABAPoBBAgAEEg!16s%2Fg%2F11h75nq889?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J116" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/MASJID+AR+ROHMAN/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb25c1a2b7cd:0x2cdd6f0793c300ae!8m2!3d-7.8054491!4d110.1506883!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTTJhMGxJU2xSUkVBReABAPoBBAgAEEg!16s%2Fg%2F11h75nq889?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K116" t="inlineStr">
         <is>
           <t>10 bulan lalu</t>
         </is>
@@ -4724,25 +4604,24 @@
       </c>
       <c r="C117" t="inlineStr"/>
       <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr"/>
+      <c r="E117" t="n">
+        <v>5</v>
+      </c>
       <c r="F117" t="n">
-        <v>5</v>
+        <v>-7.805979</v>
       </c>
       <c r="G117" t="n">
-        <v>-7.805979</v>
-      </c>
-      <c r="H117" t="n">
         <v>110.165421</v>
       </c>
-      <c r="I117" t="b">
-        <v>0</v>
+      <c r="H117" t="b">
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+As-Saff/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7af1125bd3ed07:0xba532ed1975c1ce8!8m2!3d-7.8059789!4d110.1654214!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjFkamhUVkVGbkVBReABAPoBBAgyEEc!16s%2Fg%2F11rw7n2dx9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J117" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+As-Saff/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7af1125bd3ed07:0xba532ed1975c1ce8!8m2!3d-7.8059789!4d110.1654214!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUjFkamhUVkVGbkVBReABAPoBBAgyEEc!16s%2Fg%2F11rw7n2dx9?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K117" t="inlineStr">
         <is>
           <t>1 jam lalu</t>
         </is>
@@ -4761,25 +4640,24 @@
       </c>
       <c r="C118" t="inlineStr"/>
       <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr"/>
+      <c r="E118" t="n">
+        <v>4.5</v>
+      </c>
       <c r="F118" t="n">
-        <v>4.5</v>
+        <v>-7.852095</v>
       </c>
       <c r="G118" t="n">
-        <v>-7.852095</v>
-      </c>
-      <c r="H118" t="n">
         <v>110.159581</v>
       </c>
-      <c r="I118" t="b">
-        <v>0</v>
+      <c r="H118" t="b">
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Muttaqin/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbe151a8cb9b:0xb0424735897cfebf!8m2!3d-7.8520948!4d110.1595812!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUm9lSEJEVkVSbkVBReABAPoBBAgAEC8!16s%2Fg%2F11hy_p7w28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J118" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Muttaqin/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afbe151a8cb9b:0xb0424735897cfebf!8m2!3d-7.8520948!4d110.1595812!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVUm9lSEJEVkVSbkVBReABAPoBBAgAEC8!16s%2Fg%2F11hy_p7w28?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K118" t="inlineStr">
         <is>
           <t>2 bulan lalu</t>
         </is>
@@ -4798,25 +4676,24 @@
       </c>
       <c r="C119" t="inlineStr"/>
       <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr"/>
+      <c r="E119" t="n">
+        <v>5</v>
+      </c>
       <c r="F119" t="n">
-        <v>5</v>
+        <v>-7.842607</v>
       </c>
       <c r="G119" t="n">
-        <v>-7.842607</v>
-      </c>
-      <c r="H119" t="n">
         <v>110.167917</v>
       </c>
-      <c r="I119" t="b">
-        <v>0</v>
+      <c r="H119" t="b">
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Makam+Simbah+Kyai+Bimo+Kunting/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb6269d4352f:0xe32a56b485204b27!8m2!3d-7.8426067!4d110.1679167!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGc2hyaW5l4AEA!16s%2Fg%2F11txq109pr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J119" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Makam+Simbah+Kyai+Bimo+Kunting/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afb6269d4352f:0xe32a56b485204b27!8m2!3d-7.8426067!4d110.1679167!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGc2hyaW5l4AEA!16s%2Fg%2F11txq109pr?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K119" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4835,25 +4712,24 @@
       </c>
       <c r="C120" t="inlineStr"/>
       <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr"/>
+      <c r="E120" t="n">
+        <v>4.8</v>
+      </c>
       <c r="F120" t="n">
-        <v>4.8</v>
+        <v>-7.814611</v>
       </c>
       <c r="G120" t="n">
-        <v>-7.814611</v>
-      </c>
-      <c r="H120" t="n">
         <v>110.171046</v>
       </c>
-      <c r="I120" t="b">
-        <v>0</v>
+      <c r="H120" t="b">
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Nurjihad/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afa9a3db723f1:0x2e6c0ce89e715b2!8m2!3d-7.8146112!4d110.171046!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11b7lj0p2y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J120" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Nurjihad/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afa9a3db723f1:0x2e6c0ce89e715b2!8m2!3d-7.8146112!4d110.171046!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvkgEGbW9zcXVl4AEA!16s%2Fg%2F11b7lj0p2y?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K120" t="inlineStr">
         <is>
           <t>setahun lalu</t>
         </is>
@@ -4872,25 +4748,24 @@
       </c>
       <c r="C121" t="inlineStr"/>
       <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr"/>
+      <c r="E121" t="n">
+        <v>3.5</v>
+      </c>
       <c r="F121" t="n">
-        <v>3.5</v>
+        <v>-7.817378</v>
       </c>
       <c r="G121" t="n">
-        <v>-7.817378</v>
-      </c>
-      <c r="H121" t="n">
         <v>110.15886</v>
       </c>
-      <c r="I121" t="b">
-        <v>0</v>
+      <c r="H121" t="b">
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr">
+        <is>
+          <t>https://www.google.com/maps/place/Masjid+Al+Amin/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afabca5338373:0x70b57a30fa479665!8m2!3d-7.8173785!4d110.15886!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhjVmxEYjJWUkVBReABAPoBBAgAEBk!16s%2Fg%2F11cn5nb6vs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
+        </is>
       </c>
       <c r="J121" t="inlineStr">
-        <is>
-          <t>https://www.google.com/maps/place/Masjid+Al+Amin/@-7.8589968,110.0209522,12z/data=!4m10!1m2!2m1!1sTempat+Ibadah+Kulon+Progo!3m6!1s0x2e7afabca5338373:0x70b57a30fa479665!8m2!3d-7.8173785!4d110.15886!15sChlUZW1wYXQgSWJhZGFoIEt1bG9uIFByb2dvWhsiGXRlbXBhdCBpYmFkYWgga3Vsb24gcHJvZ2-SAQZtb3NxdWWaASNDaFpEU1VoTk1HOW5TMFZKUTBGblNVTnhjVmxEYjJWUkVBReABAPoBBAgAEBk!16s%2Fg%2F11cn5nb6vs?entry=ttu&amp;g_ep=EgoyMDI1MDEyOS4xIKXMDSoASAFQAw%3D%3D</t>
-        </is>
-      </c>
-      <c r="K121" t="inlineStr">
         <is>
           <t>2 tahun lalu</t>
         </is>
